--- a/documents/sdr-release-2.0/usdm-v1.9-model-changes-conformance-rules.xlsx
+++ b/documents/sdr-release-2.0/usdm-v1.9-model-changes-conformance-rules.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ts.accenture.com/sites/DigitalDataFlow-ACNOnly/Shared Documents/ACN Only/Phase 1/SDR V2.0 Release (Aug-2022-Mar-2023)/01 - Sprint Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\indu.sekhar.sajja\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="559" documentId="13_ncr:1_{A981E9CA-A239-49F2-BDD2-AC41A1C7BDAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9628DF9A-5E5B-4687-A372-8E0E61F47C6C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB8A881D-3431-4FF3-B1F1-FEB164488AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{A3ACD5DA-FA69-451A-83B4-E2EA342D7D58}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4619" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4603" uniqueCount="516">
   <si>
     <t>StudyElement</t>
   </si>
@@ -1220,30 +1220,6 @@
     <t>Attribute is marked non-mandatory</t>
   </si>
   <si>
-    <t>Sprint2</t>
-  </si>
-  <si>
-    <t>Sprint3</t>
-  </si>
-  <si>
-    <t>Sprint4</t>
-  </si>
-  <si>
-    <t>Sprint5</t>
-  </si>
-  <si>
-    <t>Sprint6</t>
-  </si>
-  <si>
-    <t>Sprint7</t>
-  </si>
-  <si>
-    <t>Sprint8</t>
-  </si>
-  <si>
-    <t>Sprint9</t>
-  </si>
-  <si>
     <t>Attribute is marked non-mandatory, Type changed from treatment--&gt;InvestigationalIntervention</t>
   </si>
   <si>
@@ -1352,9 +1328,6 @@
     <t>scheduleTimelineEntryId</t>
   </si>
   <si>
-    <t>Cross-Reference to ScheduledInstance</t>
-  </si>
-  <si>
     <t>scheduleTimelineExits</t>
   </si>
   <si>
@@ -1376,15 +1349,9 @@
     <t>scheduleTimelineExitId</t>
   </si>
   <si>
-    <t>Cross-Reference to ScheduleTimelineExit</t>
-  </si>
-  <si>
     <t>scheduledInstanceEncounterId</t>
   </si>
   <si>
-    <t>Cross-Reference to Encounter</t>
-  </si>
-  <si>
     <t>scheduleSeqenceNumber</t>
   </si>
   <si>
@@ -1397,9 +1364,6 @@
     <t>scheduleInstanceTimelineId</t>
   </si>
   <si>
-    <t>Cross-Reference to ScheduledTimeline</t>
-  </si>
-  <si>
     <t>scheduledInstanceType</t>
   </si>
   <si>
@@ -1409,18 +1373,12 @@
     <t>activityIds</t>
   </si>
   <si>
-    <t>Will be considered when scheduledInstanceType = ACTIVITY &amp; Cross-Reference to Activities</t>
-  </si>
-  <si>
     <t>conditionAssignments</t>
   </si>
   <si>
     <t>Dictionary&lt;string,string&gt;</t>
   </si>
   <si>
-    <t>Will be considered when scheduledInstanceType = DECISION</t>
-  </si>
-  <si>
     <t>Timing</t>
   </si>
   <si>
@@ -1674,6 +1632,30 @@
   </si>
   <si>
     <t>Attribute Removed</t>
+  </si>
+  <si>
+    <t>New Class (TimePoints)
+1. scheduleTimelineEntryId - Cross-Reference to ScheduledInstance</t>
+  </si>
+  <si>
+    <t>New Class (TimePoints)
+1. scheduleTimelineExitId - Cross-Reference to ScheduleTimelineExit
+2. scheduledInstanceEncounterId - Cross-Reference to Encounter
+3. scheduleInstanceTimelineId - Cross-Reference to ScheduledTimeline
+4. activityIds attribute will be considered only when scheduledInstanceType = ACTIVITY &amp; Cross-References to Activity
+5. conditionAssignments attribute will be considered only when scheduledInstanceType = DECISION</t>
+  </si>
+  <si>
+    <t>New Class (TimePoints)
+1. relativeToScheduledInstanceId - Cross-Reference to ScheduledInstance
+2. relativeFromScheduledInstanceId - Cross-Reference to ScheduledInstance</t>
+  </si>
+  <si>
+    <t>Attribute name changed Desc--&gt; Description</t>
+  </si>
+  <si>
+    <t>New Class (Biomedical Concepts)
+1. bcCategoryMemberIds - Cross-Reference to biomedicalConcept</t>
   </si>
 </sst>
 </file>
@@ -1759,7 +1741,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1811,12 +1793,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFCE4D6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1964,7 +1940,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2095,7 +2071,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2129,13 +2104,15 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3031,7 +3008,7 @@
         <v>36</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>376</v>
@@ -3046,7 +3023,7 @@
         <v>36</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>376</v>
@@ -3962,7 +3939,7 @@
         <v>151</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
@@ -4187,10 +4164,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F0EAED-8561-4EDA-A107-AA21EA320644}">
-  <dimension ref="A1:F199"/>
+  <dimension ref="A1:E187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E189" sqref="E189"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4199,8 +4176,7 @@
     <col min="2" max="2" width="31.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="83.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="79.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -4237,7 +4213,7 @@
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>9</v>
@@ -4250,7 +4226,7 @@
       </c>
       <c r="B4" s="26"/>
       <c r="C4" s="26" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>9</v>
@@ -4272,11 +4248,11 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="62" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="B6" s="62"/>
       <c r="C6" s="62" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D6" s="62" t="s">
         <v>9</v>
@@ -4287,11 +4263,11 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="62" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="B7" s="62"/>
       <c r="C7" s="62" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D7" s="62" t="s">
         <v>9</v>
@@ -4321,7 +4297,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="51" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D9" s="51" t="s">
         <v>18</v>
@@ -4336,7 +4312,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>9</v>
@@ -4364,7 +4340,7 @@
         <v>21</v>
       </c>
       <c r="C12" s="51" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D12" s="51" t="s">
         <v>18</v>
@@ -4379,7 +4355,7 @@
         <v>22</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D13" s="27" t="s">
         <v>9</v>
@@ -4392,7 +4368,7 @@
         <v>23</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D14" s="27" t="s">
         <v>9</v>
@@ -4405,7 +4381,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D15" s="27" t="s">
         <v>9</v>
@@ -4428,10 +4404,10 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="29"/>
       <c r="B17" s="62" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="C17" s="62" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="D17" s="62" t="s">
         <v>6</v>
@@ -4446,13 +4422,13 @@
       </c>
       <c r="B18" s="54"/>
       <c r="C18" s="54" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="D18" s="54" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="54" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -4476,7 +4452,7 @@
         <v>30</v>
       </c>
       <c r="C20" s="51" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D20" s="51" t="s">
         <v>18</v>
@@ -4491,7 +4467,7 @@
         <v>31</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D21" s="27" t="s">
         <v>9</v>
@@ -4504,7 +4480,7 @@
         <v>32</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D22" s="27" t="s">
         <v>9</v>
@@ -4517,7 +4493,7 @@
         <v>38</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D23" s="27" t="s">
         <v>9</v>
@@ -4530,7 +4506,7 @@
         <v>39</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D24" s="27" t="s">
         <v>9</v>
@@ -4543,7 +4519,7 @@
         <v>37</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D25" s="27" t="s">
         <v>9</v>
@@ -4556,7 +4532,7 @@
         <v>33</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D26" s="27" t="s">
         <v>6</v>
@@ -4569,7 +4545,7 @@
         <v>34</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D27" s="27" t="s">
         <v>9</v>
@@ -4625,7 +4601,7 @@
         <v>44</v>
       </c>
       <c r="C31" s="51" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D31" s="51" t="s">
         <v>18</v>
@@ -4640,7 +4616,7 @@
         <v>45</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D32" s="27" t="s">
         <v>9</v>
@@ -4652,7 +4628,7 @@
         <v>46</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D33" s="27" t="s">
         <v>9</v>
@@ -4667,7 +4643,7 @@
         <v>36</v>
       </c>
       <c r="D34" s="53" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E34" s="51" t="s">
         <v>376</v>
@@ -4682,7 +4658,7 @@
         <v>36</v>
       </c>
       <c r="D35" s="53" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E35" s="51" t="s">
         <v>376</v>
@@ -4776,22 +4752,22 @@
         <v>6</v>
       </c>
       <c r="E42" s="54" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="31"/>
       <c r="B43" s="47" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="C43" s="47" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="D43" s="47" t="s">
         <v>6</v>
       </c>
       <c r="E43" s="47" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
@@ -4840,10 +4816,10 @@
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="31"/>
       <c r="B47" s="62" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="C47" s="62" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="D47" s="62" t="s">
         <v>6</v>
@@ -4855,10 +4831,10 @@
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="31"/>
       <c r="B48" s="62" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="C48" s="62" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D48" s="62" t="s">
         <v>9</v>
@@ -4870,10 +4846,10 @@
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="31"/>
       <c r="B49" s="62" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="C49" s="62" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="D49" s="62" t="s">
         <v>6</v>
@@ -4885,46 +4861,46 @@
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="31"/>
       <c r="B50" s="62" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="C50" s="62" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="D50" s="62" t="s">
         <v>6</v>
       </c>
       <c r="E50" s="62" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="31"/>
       <c r="B51" s="62" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="C51" s="62" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="D51" s="62" t="s">
         <v>6</v>
       </c>
       <c r="E51" s="62" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="31"/>
       <c r="B52" s="62" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="C52" s="62" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="D52" s="62" t="s">
         <v>6</v>
       </c>
       <c r="E52" s="62" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
@@ -4935,7 +4911,7 @@
         <v>66</v>
       </c>
       <c r="C53" s="51" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D53" s="51" t="s">
         <v>18</v>
@@ -4991,7 +4967,7 @@
         <v>71</v>
       </c>
       <c r="C57" s="51" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D57" s="51" t="s">
         <v>18</v>
@@ -5006,7 +4982,7 @@
         <v>76</v>
       </c>
       <c r="C58" s="27" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D58" s="27" t="s">
         <v>9</v>
@@ -5019,13 +4995,13 @@
         <v>75</v>
       </c>
       <c r="C59" s="51" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D59" s="51" t="s">
         <v>9</v>
       </c>
       <c r="E59" s="51" t="s">
-        <v>73</v>
+        <v>514</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
@@ -5047,13 +5023,13 @@
         <v>72</v>
       </c>
       <c r="C61" s="51" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D61" s="51" t="s">
         <v>9</v>
       </c>
       <c r="E61" s="51" t="s">
-        <v>73</v>
+        <v>514</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
@@ -5077,7 +5053,7 @@
         <v>79</v>
       </c>
       <c r="C63" s="51" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D63" s="51" t="s">
         <v>18</v>
@@ -5092,7 +5068,7 @@
         <v>81</v>
       </c>
       <c r="C64" s="27" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D64" s="27" t="s">
         <v>9</v>
@@ -5105,13 +5081,13 @@
         <v>80</v>
       </c>
       <c r="C65" s="51" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D65" s="51" t="s">
         <v>9</v>
       </c>
       <c r="E65" s="51" t="s">
-        <v>73</v>
+        <v>514</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
@@ -5148,7 +5124,7 @@
         <v>85</v>
       </c>
       <c r="C68" s="51" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D68" s="51" t="s">
         <v>18</v>
@@ -5161,7 +5137,7 @@
         <v>90</v>
       </c>
       <c r="C69" s="27" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D69" s="27" t="s">
         <v>9</v>
@@ -5174,13 +5150,13 @@
         <v>89</v>
       </c>
       <c r="C70" s="51" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D70" s="51" t="s">
         <v>9</v>
       </c>
       <c r="E70" s="51" t="s">
-        <v>73</v>
+        <v>514</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
@@ -5202,13 +5178,13 @@
         <v>88</v>
       </c>
       <c r="C72" s="51" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D72" s="51" t="s">
         <v>18</v>
       </c>
       <c r="E72" s="51" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
@@ -5217,28 +5193,28 @@
         <v>86</v>
       </c>
       <c r="C73" s="51" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D73" s="51" t="s">
         <v>18</v>
       </c>
       <c r="E73" s="51" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A74" s="28"/>
-      <c r="B74" s="82" t="s">
+      <c r="B74" s="80" t="s">
         <v>92</v>
       </c>
       <c r="C74" s="54" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="D74" s="54" t="s">
         <v>6</v>
       </c>
       <c r="E74" s="55" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
@@ -5249,7 +5225,7 @@
         <v>95</v>
       </c>
       <c r="C75" s="51" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D75" s="51" t="s">
         <v>18</v>
@@ -5264,13 +5240,13 @@
         <v>97</v>
       </c>
       <c r="C76" s="51" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D76" s="51" t="s">
         <v>9</v>
       </c>
       <c r="E76" s="51" t="s">
-        <v>73</v>
+        <v>514</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
@@ -5294,7 +5270,7 @@
         <v>99</v>
       </c>
       <c r="C78" s="51" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D78" s="51" t="s">
         <v>18</v>
@@ -5309,7 +5285,7 @@
         <v>100</v>
       </c>
       <c r="C79" s="27" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D79" s="27" t="s">
         <v>9</v>
@@ -5337,7 +5313,7 @@
         <v>102</v>
       </c>
       <c r="C81" s="51" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D81" s="51" t="s">
         <v>18</v>
@@ -5352,13 +5328,13 @@
         <v>103</v>
       </c>
       <c r="C82" s="51" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D82" s="51" t="s">
         <v>9</v>
       </c>
       <c r="E82" s="51" t="s">
-        <v>73</v>
+        <v>514</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
@@ -5395,7 +5371,7 @@
         <v>108</v>
       </c>
       <c r="C85" s="51" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D85" s="51" t="s">
         <v>18</v>
@@ -5410,13 +5386,13 @@
         <v>109</v>
       </c>
       <c r="C86" s="51" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D86" s="51" t="s">
         <v>9</v>
       </c>
       <c r="E86" s="51" t="s">
-        <v>73</v>
+        <v>514</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
@@ -5425,13 +5401,13 @@
         <v>111</v>
       </c>
       <c r="C87" s="51" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D87" s="51" t="s">
         <v>9</v>
       </c>
       <c r="E87" s="51" t="s">
-        <v>73</v>
+        <v>514</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
@@ -5455,7 +5431,7 @@
         <v>113</v>
       </c>
       <c r="C89" s="51" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D89" s="51" t="s">
         <v>18</v>
@@ -5470,22 +5446,22 @@
         <v>114</v>
       </c>
       <c r="C90" s="51" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D90" s="51" t="s">
         <v>9</v>
       </c>
       <c r="E90" s="51" t="s">
-        <v>73</v>
+        <v>514</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="28"/>
       <c r="B91" s="62" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="C91" s="62" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="D91" s="62" t="s">
         <v>9</v>
@@ -5497,10 +5473,10 @@
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="28"/>
       <c r="B92" s="62" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="C92" s="62" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D92" s="62" t="s">
         <v>9</v>
@@ -5512,10 +5488,10 @@
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="28"/>
       <c r="B93" s="62" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="C93" s="62" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D93" s="62" t="s">
         <v>9</v>
@@ -5527,7 +5503,7 @@
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="28"/>
       <c r="B94" s="62" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="C94" s="62" t="s">
         <v>36</v>
@@ -5547,13 +5523,13 @@
         <v>116</v>
       </c>
       <c r="C95" s="53" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D95" s="53" t="s">
         <v>9</v>
       </c>
       <c r="E95" s="58" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
@@ -5562,14 +5538,14 @@
         <v>117</v>
       </c>
       <c r="C96" s="53" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D96" s="53" t="s">
         <v>9</v>
       </c>
       <c r="E96" s="59"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="57"/>
       <c r="B97" s="53" t="s">
         <v>118</v>
@@ -5582,7 +5558,7 @@
       </c>
       <c r="E97" s="60"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="56" t="s">
         <v>120</v>
       </c>
@@ -5590,342 +5566,317 @@
         <v>121</v>
       </c>
       <c r="C98" s="53" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D98" s="53" t="s">
         <v>9</v>
       </c>
       <c r="E98" s="58" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="56"/>
       <c r="B99" s="53" t="s">
         <v>124</v>
       </c>
       <c r="C99" s="53" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D99" s="53" t="s">
         <v>9</v>
       </c>
       <c r="E99" s="59"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="56"/>
       <c r="B100" s="53" t="s">
         <v>128</v>
       </c>
       <c r="C100" s="53" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D100" s="53" t="s">
         <v>6</v>
       </c>
       <c r="E100" s="59"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="56"/>
       <c r="B101" s="53" t="s">
         <v>127</v>
       </c>
       <c r="C101" s="53" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D101" s="53" t="s">
         <v>6</v>
       </c>
       <c r="E101" s="59"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="56"/>
       <c r="B102" s="53" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C102" s="53" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D102" s="53" t="s">
         <v>6</v>
       </c>
       <c r="E102" s="59"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="56"/>
       <c r="B103" s="53" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="C103" s="53" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D103" s="53" t="s">
         <v>6</v>
       </c>
       <c r="E103" s="60"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="63" t="s">
-        <v>411</v>
-      </c>
-      <c r="B104" s="69" t="s">
-        <v>412</v>
+        <v>403</v>
+      </c>
+      <c r="B104" s="68" t="s">
+        <v>404</v>
       </c>
       <c r="C104" s="62" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D104" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E104" s="71" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E104" s="82" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="63"/>
-      <c r="B105" s="69" t="s">
-        <v>413</v>
+      <c r="B105" s="68" t="s">
+        <v>405</v>
       </c>
       <c r="C105" s="62" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D105" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E105" s="72"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E105" s="71"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="63"/>
-      <c r="B106" s="69" t="s">
-        <v>414</v>
+      <c r="B106" s="68" t="s">
+        <v>406</v>
       </c>
       <c r="C106" s="62" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D106" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E106" s="72"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E106" s="71"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="63"/>
-      <c r="B107" s="69" t="s">
-        <v>415</v>
+      <c r="B107" s="68" t="s">
+        <v>407</v>
       </c>
       <c r="C107" s="62" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D107" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E107" s="72"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E107" s="71"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="63"/>
-      <c r="B108" s="69" t="s">
-        <v>416</v>
+      <c r="B108" s="68" t="s">
+        <v>408</v>
       </c>
       <c r="C108" s="62" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D108" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="E108" s="72"/>
-      <c r="F108" s="64" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E108" s="71"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="63"/>
-      <c r="B109" s="69" t="s">
-        <v>418</v>
+      <c r="B109" s="68" t="s">
+        <v>409</v>
       </c>
       <c r="C109" s="62" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="D109" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="E109" s="72"/>
-      <c r="F109" s="64"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E109" s="71"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="63"/>
-      <c r="B110" s="69" t="s">
-        <v>420</v>
+      <c r="B110" s="68" t="s">
+        <v>411</v>
       </c>
       <c r="C110" s="62" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="D110" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="E110" s="73"/>
-      <c r="F110" s="64"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A111" s="65" t="s">
-        <v>422</v>
-      </c>
-      <c r="B111" s="70" t="s">
-        <v>423</v>
+      <c r="E110" s="72"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" s="64" t="s">
+        <v>413</v>
+      </c>
+      <c r="B111" s="69" t="s">
+        <v>414</v>
       </c>
       <c r="C111" s="62" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D111" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E111" s="71" t="s">
-        <v>514</v>
-      </c>
-      <c r="F111" s="64"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A112" s="65"/>
+      <c r="E111" s="82" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" s="64"/>
       <c r="B112" s="62" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="C112" s="62" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D112" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="E112" s="72"/>
-      <c r="F112" s="64" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A113" s="65"/>
+      <c r="E112" s="71"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113" s="64"/>
       <c r="B113" s="62" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C113" s="62" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D113" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="E113" s="72"/>
-      <c r="F113" s="64" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A114" s="65"/>
+      <c r="E113" s="71"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114" s="64"/>
       <c r="B114" s="62" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="C114" s="62" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="D114" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E114" s="72"/>
-      <c r="F114" s="64"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A115" s="65"/>
+      <c r="E114" s="71"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115" s="64"/>
       <c r="B115" s="62" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="C115" s="62" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="D115" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="E115" s="72"/>
-      <c r="F115" s="64"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A116" s="65"/>
+      <c r="E115" s="71"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116" s="64"/>
       <c r="B116" s="62" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="C116" s="62" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D116" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="E116" s="72"/>
-      <c r="F116" s="64" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A117" s="65"/>
+      <c r="E116" s="71"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117" s="64"/>
       <c r="B117" s="62" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="C117" s="62" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="D117" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E117" s="72"/>
-      <c r="F117" s="64"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A118" s="65"/>
+      <c r="E117" s="71"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118" s="64"/>
       <c r="B118" s="62" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="C118" s="62" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="D118" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="E118" s="72"/>
-      <c r="F118" s="64" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A119" s="65"/>
+      <c r="E118" s="71"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119" s="64"/>
       <c r="B119" s="62" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="C119" s="62" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="D119" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="E119" s="73"/>
-      <c r="F119" s="64" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A120" s="66" t="s">
-        <v>440</v>
+      <c r="E119" s="72"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120" s="65" t="s">
+        <v>426</v>
       </c>
       <c r="B120" s="62" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="C120" s="62" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D120" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E120" s="71" t="s">
-        <v>514</v>
-      </c>
-      <c r="F120" s="64"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A121" s="65"/>
+      <c r="E120" s="82" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121" s="64"/>
       <c r="B121" s="62" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="C121" s="62" t="s">
         <v>12</v>
@@ -5933,99 +5884,91 @@
       <c r="D121" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E121" s="72"/>
-      <c r="F121" s="64"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A122" s="65"/>
+      <c r="E121" s="71"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122" s="64"/>
       <c r="B122" s="62" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="C122" s="62" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D122" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E122" s="72"/>
-      <c r="F122" s="64"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A123" s="65"/>
+      <c r="E122" s="71"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123" s="64"/>
       <c r="B123" s="62" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="C123" s="62" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D123" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E123" s="72"/>
-      <c r="F123" s="64" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A124" s="65"/>
+      <c r="E123" s="71"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124" s="64"/>
       <c r="B124" s="62" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="C124" s="62" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D124" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E124" s="72"/>
-      <c r="F124" s="64" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A125" s="65"/>
+      <c r="E124" s="71"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125" s="64"/>
       <c r="B125" s="62" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="C125" s="62" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D125" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E125" s="72"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A126" s="67"/>
+      <c r="E125" s="71"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126" s="66"/>
       <c r="B126" s="62" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="C126" s="62" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="D126" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E126" s="73"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A127" s="68" t="s">
-        <v>449</v>
+      <c r="E126" s="72"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127" s="67" t="s">
+        <v>435</v>
       </c>
       <c r="B127" s="62" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C127" s="62" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D127" s="62" t="s">
         <v>9</v>
       </c>
       <c r="E127" s="62" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="31" t="s">
         <v>123</v>
       </c>
@@ -6033,7 +5976,7 @@
         <v>129</v>
       </c>
       <c r="C128" s="51" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D128" s="51" t="s">
         <v>18</v>
@@ -6048,7 +5991,7 @@
         <v>131</v>
       </c>
       <c r="C129" s="27" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D129" s="27" t="s">
         <v>9</v>
@@ -6061,13 +6004,13 @@
         <v>130</v>
       </c>
       <c r="C130" s="51" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D130" s="51" t="s">
         <v>9</v>
       </c>
       <c r="E130" s="51" t="s">
-        <v>73</v>
+        <v>514</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
@@ -6076,7 +6019,7 @@
         <v>135</v>
       </c>
       <c r="C131" s="27" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D131" s="27" t="s">
         <v>6</v>
@@ -6089,7 +6032,7 @@
         <v>134</v>
       </c>
       <c r="C132" s="27" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D132" s="27" t="s">
         <v>6</v>
@@ -6121,16 +6064,16 @@
         <v>6</v>
       </c>
       <c r="E134" s="54" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="31"/>
       <c r="B135" s="62" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="C135" s="62" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="D135" s="62" t="s">
         <v>9</v>
@@ -6142,10 +6085,10 @@
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="31"/>
       <c r="B136" s="62" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="C136" s="62" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D136" s="62" t="s">
         <v>9</v>
@@ -6157,61 +6100,61 @@
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="31"/>
       <c r="B137" s="62" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="C137" s="62" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="D137" s="62" t="s">
         <v>6</v>
       </c>
       <c r="E137" s="62" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="31"/>
       <c r="B138" s="62" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="C138" s="62" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="D138" s="62" t="s">
         <v>6</v>
       </c>
       <c r="E138" s="62" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="31"/>
       <c r="B139" s="62" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="C139" s="62" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="D139" s="62" t="s">
         <v>6</v>
       </c>
       <c r="E139" s="62" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="31"/>
       <c r="B140" s="47" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="C140" s="47" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D140" s="47" t="s">
         <v>6</v>
       </c>
       <c r="E140" s="47" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.35">
@@ -6222,7 +6165,7 @@
         <v>139</v>
       </c>
       <c r="C141" s="51" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D141" s="51" t="s">
         <v>18</v>
@@ -6237,7 +6180,7 @@
         <v>141</v>
       </c>
       <c r="C142" s="27" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D142" s="27" t="s">
         <v>9</v>
@@ -6259,10 +6202,10 @@
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="33"/>
       <c r="B144" s="62" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="C144" s="62" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="D144" s="62" t="s">
         <v>9</v>
@@ -6274,10 +6217,10 @@
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="34"/>
       <c r="B145" s="62" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="C145" s="62" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D145" s="62" t="s">
         <v>9</v>
@@ -6290,57 +6233,57 @@
       <c r="A146" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="B146" s="74" t="s">
+      <c r="B146" s="73" t="s">
         <v>143</v>
       </c>
-      <c r="C146" s="74" t="s">
-        <v>387</v>
-      </c>
-      <c r="D146" s="74" t="s">
+      <c r="C146" s="73" t="s">
+        <v>379</v>
+      </c>
+      <c r="D146" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E146" s="75" t="s">
-        <v>511</v>
+      <c r="E146" s="74" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="42"/>
-      <c r="B147" s="74" t="s">
+      <c r="B147" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="C147" s="74" t="s">
-        <v>387</v>
-      </c>
-      <c r="D147" s="74" t="s">
+      <c r="C147" s="73" t="s">
+        <v>379</v>
+      </c>
+      <c r="D147" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="E147" s="76"/>
+      <c r="E147" s="75"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="42"/>
-      <c r="B148" s="74" t="s">
+      <c r="B148" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="C148" s="74" t="s">
-        <v>387</v>
-      </c>
-      <c r="D148" s="74" t="s">
+      <c r="C148" s="73" t="s">
+        <v>379</v>
+      </c>
+      <c r="D148" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="E148" s="76"/>
+      <c r="E148" s="75"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="42"/>
-      <c r="B149" s="74" t="s">
+      <c r="B149" s="73" t="s">
         <v>147</v>
       </c>
-      <c r="C149" s="74" t="s">
-        <v>387</v>
-      </c>
-      <c r="D149" s="74" t="s">
+      <c r="C149" s="73" t="s">
+        <v>379</v>
+      </c>
+      <c r="D149" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="E149" s="77"/>
+      <c r="E149" s="76"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="35" t="s">
@@ -6350,7 +6293,7 @@
         <v>149</v>
       </c>
       <c r="C150" s="51" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D150" s="51" t="s">
         <v>18</v>
@@ -6365,7 +6308,7 @@
         <v>152</v>
       </c>
       <c r="C151" s="27" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D151" s="27" t="s">
         <v>9</v>
@@ -6390,13 +6333,13 @@
         <v>150</v>
       </c>
       <c r="C153" s="54" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D153" s="51" t="s">
         <v>151</v>
       </c>
       <c r="E153" s="51" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
@@ -6405,13 +6348,13 @@
         <v>154</v>
       </c>
       <c r="C154" s="54" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D154" s="51" t="s">
         <v>151</v>
       </c>
       <c r="E154" s="51" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
@@ -6435,7 +6378,7 @@
         <v>157</v>
       </c>
       <c r="C156" s="51" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D156" s="51" t="s">
         <v>18</v>
@@ -6450,13 +6393,13 @@
         <v>114</v>
       </c>
       <c r="C157" s="51" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D157" s="51" t="s">
         <v>9</v>
       </c>
       <c r="E157" s="51" t="s">
-        <v>73</v>
+        <v>514</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
@@ -6467,7 +6410,7 @@
         <v>159</v>
       </c>
       <c r="C158" s="51" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D158" s="51" t="s">
         <v>18</v>
@@ -6482,7 +6425,7 @@
         <v>161</v>
       </c>
       <c r="C159" s="27" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D159" s="27" t="s">
         <v>9</v>
@@ -6495,13 +6438,13 @@
         <v>160</v>
       </c>
       <c r="C160" s="51" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D160" s="51" t="s">
         <v>9</v>
       </c>
       <c r="E160" s="51" t="s">
-        <v>73</v>
+        <v>514</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.35">
@@ -6510,7 +6453,7 @@
         <v>162</v>
       </c>
       <c r="C161" s="27" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D161" s="27" t="s">
         <v>9</v>
@@ -6519,28 +6462,28 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" s="43" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="B162" s="47" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="C162" s="47" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D162" s="47" t="s">
         <v>9</v>
       </c>
       <c r="E162" s="43" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" s="45"/>
       <c r="B163" s="47" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="C163" s="47" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D163" s="47" t="s">
         <v>9</v>
@@ -6550,10 +6493,10 @@
     <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" s="45"/>
       <c r="B164" s="47" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="C164" s="47" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="D164" s="47" t="s">
         <v>6</v>
@@ -6563,10 +6506,10 @@
     <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" s="45"/>
       <c r="B165" s="47" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="C165" s="47" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D165" s="47" t="s">
         <v>9</v>
@@ -6576,10 +6519,10 @@
     <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" s="45"/>
       <c r="B166" s="47" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="C166" s="47" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="D166" s="47" t="s">
         <v>6</v>
@@ -6589,10 +6532,10 @@
     <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" s="46"/>
       <c r="B167" s="47" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="C167" s="47" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="D167" s="47" t="s">
         <v>9</v>
@@ -6601,28 +6544,28 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" s="48" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="B168" s="47" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="C168" s="47" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D168" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="E168" s="43" t="s">
-        <v>510</v>
+      <c r="E168" s="48" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" s="49"/>
       <c r="B169" s="47" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="C169" s="47" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="D169" s="47" t="s">
         <v>6</v>
@@ -6632,10 +6575,10 @@
     <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" s="49"/>
       <c r="B170" s="47" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="C170" s="47" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="D170" s="47" t="s">
         <v>6</v>
@@ -6645,10 +6588,10 @@
     <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" s="49"/>
       <c r="B171" s="47" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="C171" s="47" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D171" s="47" t="s">
         <v>9</v>
@@ -6658,10 +6601,10 @@
     <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" s="49"/>
       <c r="B172" s="47" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="C172" s="47" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D172" s="47" t="s">
         <v>9</v>
@@ -6671,10 +6614,10 @@
     <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" s="50"/>
       <c r="B173" s="47" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="C173" s="47" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="D173" s="47" t="s">
         <v>6</v>
@@ -6683,28 +6626,28 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" s="43" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="B174" s="47" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="C174" s="47" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D174" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="E174" s="43" t="s">
-        <v>510</v>
+      <c r="E174" s="48" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" s="45"/>
       <c r="B175" s="47" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="C175" s="47" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D175" s="47" t="s">
         <v>9</v>
@@ -6714,10 +6657,10 @@
     <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" s="45"/>
       <c r="B176" s="47" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="C176" s="47" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="D176" s="47" t="s">
         <v>9</v>
@@ -6727,10 +6670,10 @@
     <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" s="45"/>
       <c r="B177" s="47" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="C177" s="47" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="D177" s="47" t="s">
         <v>9</v>
@@ -6740,10 +6683,10 @@
     <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" s="45"/>
       <c r="B178" s="47" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="C178" s="47" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D178" s="47" t="s">
         <v>9</v>
@@ -6753,10 +6696,10 @@
     <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" s="45"/>
       <c r="B179" s="47" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="C179" s="47" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="D179" s="47" t="s">
         <v>6</v>
@@ -6766,10 +6709,10 @@
     <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" s="46"/>
       <c r="B180" s="47" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="C180" s="47" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="D180" s="47" t="s">
         <v>9</v>
@@ -6778,28 +6721,28 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" s="43" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="B181" s="47" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="C181" s="47" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D181" s="47" t="s">
         <v>9</v>
       </c>
       <c r="E181" s="43" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" s="45"/>
       <c r="B182" s="47" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="C182" s="47" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D182" s="47" t="s">
         <v>9</v>
@@ -6809,10 +6752,10 @@
     <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" s="45"/>
       <c r="B183" s="47" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="C183" s="47" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D183" s="47" t="s">
         <v>9</v>
@@ -6822,10 +6765,10 @@
     <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" s="46"/>
       <c r="B184" s="47" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="C184" s="47" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D184" s="47" t="s">
         <v>9</v>
@@ -6834,28 +6777,28 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" s="43" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="B185" s="47" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="C185" s="47" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D185" s="47" t="s">
         <v>9</v>
       </c>
       <c r="E185" s="43" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" s="45"/>
       <c r="B186" s="47" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="C186" s="47" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="D186" s="47" t="s">
         <v>9</v>
@@ -6874,46 +6817,6 @@
         <v>9</v>
       </c>
       <c r="E187" s="46"/>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A192" s="78" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A193" s="78" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A194" s="78" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A195" s="78" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A196" s="78" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A197" s="78" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A198" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A199" t="s">
-        <v>384</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="41">
@@ -7305,7 +7208,7 @@
         <v>165</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D2" s="51" t="s">
         <v>18</v>
@@ -7320,7 +7223,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D3" s="36" t="s">
         <v>9</v>
@@ -7333,7 +7236,7 @@
         <v>166</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D4" s="36" t="s">
         <v>9</v>
@@ -7346,7 +7249,7 @@
         <v>167</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D5" s="36" t="s">
         <v>9</v>
@@ -7359,7 +7262,7 @@
         <v>168</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D6" s="36" t="s">
         <v>9</v>
@@ -7374,7 +7277,7 @@
         <v>169</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D7" s="51" t="s">
         <v>18</v>
@@ -7389,13 +7292,13 @@
         <v>170</v>
       </c>
       <c r="C8" s="51" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D8" s="51" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="51" t="s">
-        <v>73</v>
+        <v>514</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -7406,7 +7309,7 @@
         <v>171</v>
       </c>
       <c r="C9" s="51" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D9" s="51" t="s">
         <v>18</v>
@@ -7421,7 +7324,7 @@
         <v>175</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D10" s="36" t="s">
         <v>9</v>
@@ -7434,13 +7337,13 @@
         <v>173</v>
       </c>
       <c r="C11" s="51" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D11" s="51" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="51" t="s">
-        <v>73</v>
+        <v>514</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -7449,7 +7352,7 @@
         <v>178</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>6</v>
@@ -7462,7 +7365,7 @@
         <v>177</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>6</v>
@@ -7497,8 +7400,8 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="16"/>
-      <c r="B16" s="83" t="s">
-        <v>494</v>
+      <c r="B16" s="81" t="s">
+        <v>480</v>
       </c>
       <c r="C16" s="52" t="s">
         <v>36</v>
@@ -7507,7 +7410,7 @@
         <v>6</v>
       </c>
       <c r="E16" s="51" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -7538,40 +7441,40 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="38"/>
-      <c r="B19" s="79" t="s">
-        <v>495</v>
-      </c>
-      <c r="C19" s="79" t="s">
-        <v>387</v>
-      </c>
-      <c r="D19" s="79" t="s">
+      <c r="B19" s="77" t="s">
+        <v>481</v>
+      </c>
+      <c r="C19" s="77" t="s">
+        <v>379</v>
+      </c>
+      <c r="D19" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="79" t="s">
-        <v>520</v>
+      <c r="E19" s="77" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="31" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="B20" s="62" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="C20" s="62" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D20" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="71" t="s">
-        <v>509</v>
+      <c r="E20" s="70" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="40"/>
       <c r="B21" s="62" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="C21" s="62" t="s">
         <v>12</v>
@@ -7579,107 +7482,107 @@
       <c r="D21" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="72"/>
+      <c r="E21" s="71"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="40"/>
-      <c r="B22" s="80" t="s">
-        <v>499</v>
-      </c>
-      <c r="C22" s="81" t="s">
+      <c r="B22" s="78" t="s">
+        <v>485</v>
+      </c>
+      <c r="C22" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="80" t="s">
+      <c r="D22" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="73"/>
+      <c r="E22" s="72"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="31" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="B23" s="62" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="C23" s="62" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D23" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="71" t="s">
-        <v>509</v>
+      <c r="E23" s="70" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="40"/>
       <c r="B24" s="62" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="C24" s="62" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D24" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="72"/>
+      <c r="E24" s="71"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="40"/>
       <c r="B25" s="62" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="C25" s="62" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D25" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="72"/>
+      <c r="E25" s="71"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="40"/>
       <c r="B26" s="62" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="C26" s="62" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D26" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="72"/>
+      <c r="E26" s="71"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="40"/>
       <c r="B27" s="62" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="C27" s="62" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D27" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="72"/>
+      <c r="E27" s="71"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="40"/>
       <c r="B28" s="62" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="C28" s="62" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D28" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="72"/>
+      <c r="E28" s="71"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="41"/>
       <c r="B29" s="62" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="C29" s="62" t="s">
         <v>12</v>
@@ -7687,7 +7590,7 @@
       <c r="D29" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="73"/>
+      <c r="E29" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -19535,4 +19438,10 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>
+</clbl:labelList>
 </file>
--- a/documents/sdr-release-2.0/usdm-v1.9-model-changes-conformance-rules.xlsx
+++ b/documents/sdr-release-2.0/usdm-v1.9-model-changes-conformance-rules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\indu.sekhar.sajja\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\viswesh.mb\Desktop\ToBeUploaded\Support_Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB8A881D-3431-4FF3-B1F1-FEB164488AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0EB54D6-EF14-4EBD-8C24-0AB7EA54CC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{A3ACD5DA-FA69-451A-83B4-E2EA342D7D58}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{A3ACD5DA-FA69-451A-83B4-E2EA342D7D58}"/>
   </bookViews>
   <sheets>
     <sheet name="StudyLevel12" sheetId="3" state="hidden" r:id="rId1"/>
@@ -19,9 +19,6 @@
     <sheet name="Common" sheetId="6" r:id="rId4"/>
     <sheet name="DataDictionary" sheetId="1" state="hidden" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">StudyLevel!$A$1:$E$187</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">StudyLevel12!$A$1:$E$114</definedName>
@@ -47,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4603" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4603" uniqueCount="515">
   <si>
     <t>StudyElement</t>
   </si>
@@ -1334,9 +1331,6 @@
     <t>List&lt;ScheduleTimelineExit&gt;</t>
   </si>
   <si>
-    <t>scheduledTimelineInstances</t>
-  </si>
-  <si>
     <t>List&lt;ScheduledInstance&gt;</t>
   </si>
   <si>
@@ -1352,9 +1346,6 @@
     <t>scheduledInstanceEncounterId</t>
   </si>
   <si>
-    <t>scheduleSeqenceNumber</t>
-  </si>
-  <si>
     <t>scheduledInstanceTimings</t>
   </si>
   <si>
@@ -1407,9 +1398,6 @@
   </si>
   <si>
     <t>ScheduleTimelineExit</t>
-  </si>
-  <si>
-    <t>exitId</t>
   </si>
   <si>
     <t>workflowItemEncounterId</t>
@@ -1656,6 +1644,12 @@
   <si>
     <t>New Class (Biomedical Concepts)
 1. bcCategoryMemberIds - Cross-Reference to biomedicalConcept</t>
+  </si>
+  <si>
+    <t>scheduleTimelineInstances</t>
+  </si>
+  <si>
+    <t>scheduleSequenceNumber</t>
   </si>
 </sst>
 </file>
@@ -1940,7 +1934,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1959,13 +1953,47 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1974,63 +2002,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2042,77 +2053,47 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2136,23 +2117,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="DataDictionary"/>
-      <sheetName val="StudyLevel"/>
-      <sheetName val="Common"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2458,21 +2422,21 @@
       <selection activeCell="A119" sqref="A119:A126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.1796875" customWidth="1"/>
-    <col min="2" max="2" width="29.1796875" customWidth="1"/>
-    <col min="3" max="3" width="35.453125" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="87.54296875" bestFit="1" customWidth="1"/>
-    <col min="16383" max="16383" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="87.5703125" bestFit="1" customWidth="1"/>
+    <col min="16383" max="16383" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="48"/>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
@@ -2483,7 +2447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -2496,7 +2460,7 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2509,7 +2473,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -2522,7 +2486,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2535,7 +2499,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -2548,8 +2512,8 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="44" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -2565,8 +2529,8 @@
         <v>374</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="16"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="44"/>
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
@@ -2578,8 +2542,8 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="16"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="44"/>
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
@@ -2591,8 +2555,8 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="18" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="47" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -2608,8 +2572,8 @@
         <v>374</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="18"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="47"/>
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
@@ -2621,8 +2585,8 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="18"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="47"/>
       <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
@@ -2634,8 +2598,8 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="18"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="47"/>
       <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
@@ -2647,8 +2611,8 @@
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="18"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="47"/>
       <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
@@ -2660,7 +2624,7 @@
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -2673,7 +2637,7 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -2686,8 +2650,8 @@
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="16" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="44" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -2703,8 +2667,8 @@
         <v>374</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="16"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="44"/>
       <c r="B18" s="1" t="s">
         <v>31</v>
       </c>
@@ -2716,8 +2680,8 @@
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="16"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="44"/>
       <c r="B19" s="1" t="s">
         <v>32</v>
       </c>
@@ -2729,8 +2693,8 @@
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="16"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="44"/>
       <c r="B20" s="1" t="s">
         <v>33</v>
       </c>
@@ -2742,8 +2706,8 @@
       </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="16"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="44"/>
       <c r="B21" s="1" t="s">
         <v>34</v>
       </c>
@@ -2755,8 +2719,8 @@
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="16"/>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="44"/>
       <c r="B22" s="1" t="s">
         <v>35</v>
       </c>
@@ -2768,8 +2732,8 @@
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="16"/>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="44"/>
       <c r="B23" s="1" t="s">
         <v>37</v>
       </c>
@@ -2781,8 +2745,8 @@
       </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="16"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="44"/>
       <c r="B24" s="1" t="s">
         <v>38</v>
       </c>
@@ -2794,8 +2758,8 @@
       </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="16"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="44"/>
       <c r="B25" s="1" t="s">
         <v>39</v>
       </c>
@@ -2807,7 +2771,7 @@
       </c>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>40</v>
       </c>
@@ -2820,7 +2784,7 @@
       </c>
       <c r="E26" s="14"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
@@ -2833,8 +2797,8 @@
       </c>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="16" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="44" t="s">
         <v>43</v>
       </c>
       <c r="B28" s="9" t="s">
@@ -2850,8 +2814,8 @@
         <v>374</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="16"/>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="44"/>
       <c r="B29" s="14" t="s">
         <v>45</v>
       </c>
@@ -2865,8 +2829,8 @@
         <v>375</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="16"/>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="44"/>
       <c r="B30" s="14" t="s">
         <v>46</v>
       </c>
@@ -2880,8 +2844,8 @@
         <v>375</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="16"/>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="44"/>
       <c r="B31" s="1" t="s">
         <v>47</v>
       </c>
@@ -2893,8 +2857,8 @@
       </c>
       <c r="E31" s="12"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="16"/>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="44"/>
       <c r="B32" s="1" t="s">
         <v>48</v>
       </c>
@@ -2906,8 +2870,8 @@
       </c>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="16"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="44"/>
       <c r="B33" s="1" t="s">
         <v>50</v>
       </c>
@@ -2919,8 +2883,8 @@
       </c>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="16"/>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="44"/>
       <c r="B34" s="1" t="s">
         <v>52</v>
       </c>
@@ -2932,8 +2896,8 @@
       </c>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="16"/>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="44"/>
       <c r="B35" s="1" t="s">
         <v>54</v>
       </c>
@@ -2945,12 +2909,12 @@
       </c>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="16"/>
-      <c r="B36" s="21" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="44"/>
+      <c r="B36" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="16" t="s">
         <v>57</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -2958,8 +2922,8 @@
       </c>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="16"/>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="44"/>
       <c r="B37" s="14" t="s">
         <v>58</v>
       </c>
@@ -2973,8 +2937,8 @@
         <v>375</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="16"/>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="44"/>
       <c r="B38" s="6" t="s">
         <v>59</v>
       </c>
@@ -2986,8 +2950,8 @@
       </c>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="16"/>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="44"/>
       <c r="B39" s="6" t="s">
         <v>61</v>
       </c>
@@ -2999,38 +2963,38 @@
       </c>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="16"/>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="44"/>
       <c r="B40" s="9" t="s">
         <v>63</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D40" s="23" t="s">
+      <c r="D40" s="17" t="s">
         <v>378</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="16"/>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="44"/>
       <c r="B41" s="9" t="s">
         <v>64</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D41" s="23" t="s">
+      <c r="D41" s="17" t="s">
         <v>378</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="16" t="s">
+    <row r="42" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="44" t="s">
         <v>65</v>
       </c>
       <c r="B42" s="9" t="s">
@@ -3046,8 +3010,8 @@
         <v>374</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="16"/>
+    <row r="43" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="44"/>
       <c r="B43" s="1" t="s">
         <v>67</v>
       </c>
@@ -3059,8 +3023,8 @@
       </c>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="16"/>
+    <row r="44" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="44"/>
       <c r="B44" s="1" t="s">
         <v>68</v>
       </c>
@@ -3072,8 +3036,8 @@
       </c>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="16"/>
+    <row r="45" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="44"/>
       <c r="B45" s="1" t="s">
         <v>70</v>
       </c>
@@ -3085,8 +3049,8 @@
       </c>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="16" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="44" t="s">
         <v>67</v>
       </c>
       <c r="B46" s="9" t="s">
@@ -3102,8 +3066,8 @@
         <v>374</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="16"/>
+    <row r="47" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="44"/>
       <c r="B47" s="9" t="s">
         <v>72</v>
       </c>
@@ -3117,8 +3081,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="16"/>
+    <row r="48" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="44"/>
       <c r="B48" s="1" t="s">
         <v>74</v>
       </c>
@@ -3130,8 +3094,8 @@
       </c>
       <c r="E48" s="1"/>
     </row>
-    <row r="49" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="16"/>
+    <row r="49" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="44"/>
       <c r="B49" s="9" t="s">
         <v>75</v>
       </c>
@@ -3145,8 +3109,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="16"/>
+    <row r="50" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="44"/>
       <c r="B50" s="1" t="s">
         <v>76</v>
       </c>
@@ -3158,8 +3122,8 @@
       </c>
       <c r="E50" s="1"/>
     </row>
-    <row r="51" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="16"/>
+    <row r="51" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="44"/>
       <c r="B51" s="1" t="s">
         <v>77</v>
       </c>
@@ -3171,8 +3135,8 @@
       </c>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="16" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="44" t="s">
         <v>78</v>
       </c>
       <c r="B52" s="9" t="s">
@@ -3188,8 +3152,8 @@
         <v>374</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="16"/>
+    <row r="53" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="44"/>
       <c r="B53" s="9" t="s">
         <v>80</v>
       </c>
@@ -3203,8 +3167,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="16"/>
+    <row r="54" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="44"/>
       <c r="B54" s="1" t="s">
         <v>81</v>
       </c>
@@ -3216,8 +3180,8 @@
       </c>
       <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="16"/>
+    <row r="55" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="44"/>
       <c r="B55" s="1" t="s">
         <v>82</v>
       </c>
@@ -3229,8 +3193,8 @@
       </c>
       <c r="E55" s="1"/>
     </row>
-    <row r="56" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="16"/>
+    <row r="56" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="44"/>
       <c r="B56" s="1" t="s">
         <v>84</v>
       </c>
@@ -3242,8 +3206,8 @@
       </c>
       <c r="E56" s="1"/>
     </row>
-    <row r="57" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="16" t="s">
+    <row r="57" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="44" t="s">
         <v>70</v>
       </c>
       <c r="B57" s="9" t="s">
@@ -3257,8 +3221,8 @@
       </c>
       <c r="E57" s="9"/>
     </row>
-    <row r="58" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="16"/>
+    <row r="58" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="44"/>
       <c r="B58" s="9" t="s">
         <v>86</v>
       </c>
@@ -3272,8 +3236,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="16"/>
+    <row r="59" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="44"/>
       <c r="B59" s="9" t="s">
         <v>88</v>
       </c>
@@ -3287,8 +3251,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="16"/>
+    <row r="60" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="44"/>
       <c r="B60" s="9" t="s">
         <v>89</v>
       </c>
@@ -3302,8 +3266,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="16"/>
+    <row r="61" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="44"/>
       <c r="B61" s="1" t="s">
         <v>90</v>
       </c>
@@ -3315,8 +3279,8 @@
       </c>
       <c r="E61" s="1"/>
     </row>
-    <row r="62" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="16"/>
+    <row r="62" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="44"/>
       <c r="B62" s="1" t="s">
         <v>91</v>
       </c>
@@ -3328,8 +3292,8 @@
       </c>
       <c r="E62" s="8"/>
     </row>
-    <row r="63" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="16"/>
+    <row r="63" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="44"/>
       <c r="B63" s="7" t="s">
         <v>92</v>
       </c>
@@ -3341,8 +3305,8 @@
       </c>
       <c r="E63" s="1"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="16" t="s">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="44" t="s">
         <v>94</v>
       </c>
       <c r="B64" s="9" t="s">
@@ -3358,8 +3322,8 @@
         <v>374</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="16"/>
+    <row r="65" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="44"/>
       <c r="B65" s="1" t="s">
         <v>96</v>
       </c>
@@ -3371,8 +3335,8 @@
       </c>
       <c r="E65" s="1"/>
     </row>
-    <row r="66" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="16"/>
+    <row r="66" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="44"/>
       <c r="B66" s="9" t="s">
         <v>97</v>
       </c>
@@ -3386,8 +3350,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" s="16" t="s">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="44" t="s">
         <v>98</v>
       </c>
       <c r="B67" s="9" t="s">
@@ -3403,8 +3367,8 @@
         <v>374</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="16"/>
+    <row r="68" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="44"/>
       <c r="B68" s="1" t="s">
         <v>96</v>
       </c>
@@ -3416,8 +3380,8 @@
       </c>
       <c r="E68" s="1"/>
     </row>
-    <row r="69" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="16"/>
+    <row r="69" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="44"/>
       <c r="B69" s="9" t="s">
         <v>100</v>
       </c>
@@ -3431,8 +3395,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" s="16" t="s">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="44" t="s">
         <v>101</v>
       </c>
       <c r="B70" s="9" t="s">
@@ -3448,8 +3412,8 @@
         <v>374</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="16"/>
+    <row r="71" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="44"/>
       <c r="B71" s="9" t="s">
         <v>103</v>
       </c>
@@ -3463,8 +3427,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="16"/>
+    <row r="72" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="44"/>
       <c r="B72" s="1" t="s">
         <v>104</v>
       </c>
@@ -3476,8 +3440,8 @@
       </c>
       <c r="E72" s="1"/>
     </row>
-    <row r="73" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="16"/>
+    <row r="73" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="44"/>
       <c r="B73" s="1" t="s">
         <v>106</v>
       </c>
@@ -3489,8 +3453,8 @@
       </c>
       <c r="E73" s="1"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" s="16" t="s">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="44" t="s">
         <v>107</v>
       </c>
       <c r="B74" s="9" t="s">
@@ -3506,8 +3470,8 @@
         <v>374</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="16"/>
+    <row r="75" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="44"/>
       <c r="B75" s="9" t="s">
         <v>109</v>
       </c>
@@ -3521,8 +3485,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="16"/>
+    <row r="76" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="44"/>
       <c r="B76" s="1" t="s">
         <v>110</v>
       </c>
@@ -3534,8 +3498,8 @@
       </c>
       <c r="E76" s="1"/>
     </row>
-    <row r="77" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="16"/>
+    <row r="77" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="44"/>
       <c r="B77" s="9" t="s">
         <v>111</v>
       </c>
@@ -3549,8 +3513,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" s="16" t="s">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="44" t="s">
         <v>112</v>
       </c>
       <c r="B78" s="9" t="s">
@@ -3566,8 +3530,8 @@
         <v>374</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" s="16"/>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="44"/>
       <c r="B79" s="9" t="s">
         <v>114</v>
       </c>
@@ -3581,8 +3545,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="19" t="s">
+    <row r="80" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="45" t="s">
         <v>115</v>
       </c>
       <c r="B80" s="9" t="s">
@@ -3598,8 +3562,8 @@
         <v>374</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="19"/>
+    <row r="81" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="45"/>
       <c r="B81" s="9" t="s">
         <v>117</v>
       </c>
@@ -3613,8 +3577,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="19"/>
+    <row r="82" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="45"/>
       <c r="B82" s="1" t="s">
         <v>118</v>
       </c>
@@ -3626,8 +3590,8 @@
       </c>
       <c r="E82" s="1"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A83" s="16" t="s">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="44" t="s">
         <v>120</v>
       </c>
       <c r="B83" s="9" t="s">
@@ -3643,8 +3607,8 @@
         <v>374</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="16"/>
+    <row r="84" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="44"/>
       <c r="B84" s="1" t="s">
         <v>122</v>
       </c>
@@ -3656,8 +3620,8 @@
       </c>
       <c r="E84" s="1"/>
     </row>
-    <row r="85" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="16"/>
+    <row r="85" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="44"/>
       <c r="B85" s="9" t="s">
         <v>124</v>
       </c>
@@ -3671,8 +3635,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="16"/>
+    <row r="86" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="44"/>
       <c r="B86" s="1" t="s">
         <v>125</v>
       </c>
@@ -3684,8 +3648,8 @@
       </c>
       <c r="E86" s="1"/>
     </row>
-    <row r="87" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="16"/>
+    <row r="87" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="44"/>
       <c r="B87" s="1" t="s">
         <v>127</v>
       </c>
@@ -3697,8 +3661,8 @@
       </c>
       <c r="E87" s="1"/>
     </row>
-    <row r="88" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="16"/>
+    <row r="88" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="44"/>
       <c r="B88" s="1" t="s">
         <v>128</v>
       </c>
@@ -3710,8 +3674,8 @@
       </c>
       <c r="E88" s="1"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A89" s="20" t="s">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="46" t="s">
         <v>123</v>
       </c>
       <c r="B89" s="9" t="s">
@@ -3727,8 +3691,8 @@
         <v>374</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="20"/>
+    <row r="90" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="46"/>
       <c r="B90" s="9" t="s">
         <v>130</v>
       </c>
@@ -3742,8 +3706,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="20"/>
+    <row r="91" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="46"/>
       <c r="B91" s="1" t="s">
         <v>131</v>
       </c>
@@ -3755,8 +3719,8 @@
       </c>
       <c r="E91" s="1"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A92" s="20"/>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="46"/>
       <c r="B92" s="1" t="s">
         <v>132</v>
       </c>
@@ -3768,8 +3732,8 @@
       </c>
       <c r="E92" s="1"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A93" s="20"/>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="46"/>
       <c r="B93" s="1" t="s">
         <v>134</v>
       </c>
@@ -3781,8 +3745,8 @@
       </c>
       <c r="E93" s="1"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A94" s="20"/>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="46"/>
       <c r="B94" s="1" t="s">
         <v>135</v>
       </c>
@@ -3794,8 +3758,8 @@
       </c>
       <c r="E94" s="1"/>
     </row>
-    <row r="95" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="20"/>
+    <row r="95" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="46"/>
       <c r="B95" s="1" t="s">
         <v>136</v>
       </c>
@@ -3807,8 +3771,8 @@
       </c>
       <c r="E95" s="1"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A96" s="18" t="s">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="47" t="s">
         <v>138</v>
       </c>
       <c r="B96" s="9" t="s">
@@ -3824,8 +3788,8 @@
         <v>374</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A97" s="18"/>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="47"/>
       <c r="B97" s="1" t="s">
         <v>140</v>
       </c>
@@ -3837,8 +3801,8 @@
       </c>
       <c r="E97" s="1"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A98" s="18"/>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="47"/>
       <c r="B98" s="1" t="s">
         <v>141</v>
       </c>
@@ -3850,8 +3814,8 @@
       </c>
       <c r="E98" s="1"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A99" s="18" t="s">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="47" t="s">
         <v>142</v>
       </c>
       <c r="B99" s="9" t="s">
@@ -3867,8 +3831,8 @@
         <v>374</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A100" s="18"/>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="47"/>
       <c r="B100" s="9" t="s">
         <v>144</v>
       </c>
@@ -3882,8 +3846,8 @@
         <v>145</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A101" s="18"/>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="47"/>
       <c r="B101" s="9" t="s">
         <v>146</v>
       </c>
@@ -3897,8 +3861,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A102" s="18"/>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="47"/>
       <c r="B102" s="1" t="s">
         <v>147</v>
       </c>
@@ -3910,8 +3874,8 @@
       </c>
       <c r="E102" s="1"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A103" s="18" t="s">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="47" t="s">
         <v>148</v>
       </c>
       <c r="B103" s="9" t="s">
@@ -3927,8 +3891,8 @@
         <v>374</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A104" s="18"/>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="47"/>
       <c r="B104" s="9" t="s">
         <v>150</v>
       </c>
@@ -3942,8 +3906,8 @@
         <v>377</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A105" s="18"/>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="47"/>
       <c r="B105" s="1" t="s">
         <v>152</v>
       </c>
@@ -3955,8 +3919,8 @@
       </c>
       <c r="E105" s="1"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A106" s="18"/>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="47"/>
       <c r="B106" s="1" t="s">
         <v>153</v>
       </c>
@@ -3968,8 +3932,8 @@
       </c>
       <c r="E106" s="1"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A107" s="18"/>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="47"/>
       <c r="B107" s="9" t="s">
         <v>154</v>
       </c>
@@ -3983,8 +3947,8 @@
         <v>376</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A108" s="18"/>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="47"/>
       <c r="B108" s="1" t="s">
         <v>155</v>
       </c>
@@ -3996,8 +3960,8 @@
       </c>
       <c r="E108" s="1"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A109" s="16" t="s">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="44" t="s">
         <v>153</v>
       </c>
       <c r="B109" s="9" t="s">
@@ -4013,8 +3977,8 @@
         <v>374</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="16"/>
+    <row r="110" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="44"/>
       <c r="B110" s="9" t="s">
         <v>114</v>
       </c>
@@ -4028,8 +3992,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A111" s="16" t="s">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="44" t="s">
         <v>158</v>
       </c>
       <c r="B111" s="9" t="s">
@@ -4045,8 +4009,8 @@
         <v>374</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="16"/>
+    <row r="112" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="44"/>
       <c r="B112" s="9" t="s">
         <v>160</v>
       </c>
@@ -4060,8 +4024,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="16"/>
+    <row r="113" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="44"/>
       <c r="B113" s="1" t="s">
         <v>161</v>
       </c>
@@ -4073,8 +4037,8 @@
       </c>
       <c r="E113" s="1"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A114" s="16"/>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="44"/>
       <c r="B114" s="1" t="s">
         <v>162</v>
       </c>
@@ -4088,12 +4052,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A57:A63"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A17:A25"/>
+    <mergeCell ref="A28:A41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A14"/>
     <mergeCell ref="A109:A110"/>
     <mergeCell ref="A111:A114"/>
     <mergeCell ref="A80:A82"/>
@@ -4102,14 +4068,12 @@
     <mergeCell ref="A96:A98"/>
     <mergeCell ref="A99:A102"/>
     <mergeCell ref="A103:A108"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A17:A25"/>
-    <mergeCell ref="A28:A41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A46:A51"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A57:A63"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A74:A77"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
@@ -4166,2665 +4130,2684 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F0EAED-8561-4EDA-A107-AA21EA320644}">
   <dimension ref="A1:E187"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.1796875" customWidth="1"/>
-    <col min="2" max="2" width="31.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="64.6328125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="26"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="26" t="s">
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19" t="s">
         <v>379</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="26"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="26" t="s">
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19" t="s">
         <v>379</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="26"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="26" t="s">
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="26"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="62" t="s">
+      <c r="E5" s="19"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="35" t="s">
         <v>380</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="35" t="s">
         <v>379</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="27" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="62" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
         <v>381</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="35" t="s">
         <v>379</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="D7" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="27" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="27" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="27"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="28" t="s">
+      <c r="E8" s="20"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="29" t="s">
         <v>379</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="51" t="s">
+      <c r="E9" s="29" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="28"/>
-      <c r="B10" s="27" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="70"/>
+      <c r="B10" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="27"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="28"/>
-      <c r="B11" s="27" t="s">
+      <c r="E10" s="20"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="70"/>
+      <c r="B11" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="27"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="29" t="s">
+      <c r="E11" s="20"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="29" t="s">
         <v>379</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="51" t="s">
+      <c r="E12" s="29" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="29"/>
-      <c r="B13" s="27" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="66"/>
+      <c r="B13" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="27"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="29"/>
-      <c r="B14" s="27" t="s">
+      <c r="E13" s="20"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="66"/>
+      <c r="B14" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="27"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="29"/>
-      <c r="B15" s="27" t="s">
+      <c r="E14" s="20"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="66"/>
+      <c r="B15" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="27"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="29"/>
-      <c r="B16" s="27" t="s">
+      <c r="E15" s="20"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="66"/>
+      <c r="B16" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="27"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="29"/>
-      <c r="B17" s="62" t="s">
+      <c r="E16" s="20"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="66"/>
+      <c r="B17" s="35" t="s">
         <v>382</v>
       </c>
-      <c r="C17" s="62" t="s">
+      <c r="C17" s="35" t="s">
         <v>383</v>
       </c>
-      <c r="D17" s="62" t="s">
+      <c r="D17" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="44" t="s">
+      <c r="E17" s="27" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="54" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54" t="s">
+      <c r="B18" s="32"/>
+      <c r="C18" s="32" t="s">
         <v>384</v>
       </c>
-      <c r="D18" s="54" t="s">
+      <c r="D18" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="54" t="s">
+      <c r="E18" s="32" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="20"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="70"/>
+      <c r="B21" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="20"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="70"/>
+      <c r="B22" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="20"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="70"/>
+      <c r="B23" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="20"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="70"/>
+      <c r="B24" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="20"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="70"/>
+      <c r="B25" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="20"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="70"/>
+      <c r="B26" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="20"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="70"/>
+      <c r="B27" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="20"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="70"/>
+      <c r="B28" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="20"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="20"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="65"/>
+      <c r="B32" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="65"/>
+      <c r="B33" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="65"/>
+      <c r="B34" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="E34" s="29" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="65"/>
+      <c r="B35" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="E35" s="29" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="65"/>
+      <c r="B36" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="20"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="65"/>
+      <c r="B37" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="20"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="65"/>
+      <c r="B38" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="20"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="65"/>
+      <c r="B39" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="65"/>
+      <c r="B40" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="65"/>
+      <c r="B41" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="20"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="65"/>
+      <c r="B42" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="65"/>
+      <c r="B43" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>386</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="28" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="65"/>
+      <c r="B44" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="28" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="65"/>
+      <c r="B45" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="20"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="65"/>
+      <c r="B46" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="35" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="65"/>
+      <c r="B47" s="35" t="s">
+        <v>387</v>
+      </c>
+      <c r="C47" s="35" t="s">
+        <v>388</v>
+      </c>
+      <c r="D47" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="35" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="65"/>
+      <c r="B48" s="35" t="s">
+        <v>389</v>
+      </c>
+      <c r="C48" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="D48" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="28" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="65"/>
+      <c r="B49" s="35" t="s">
+        <v>390</v>
+      </c>
+      <c r="C49" s="35" t="s">
+        <v>384</v>
+      </c>
+      <c r="D49" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="28" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="65"/>
+      <c r="B50" s="35" t="s">
+        <v>391</v>
+      </c>
+      <c r="C50" s="35" t="s">
+        <v>392</v>
+      </c>
+      <c r="D50" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="35" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="65"/>
+      <c r="B51" s="35" t="s">
+        <v>393</v>
+      </c>
+      <c r="C51" s="35" t="s">
+        <v>394</v>
+      </c>
+      <c r="D51" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="35" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="65"/>
+      <c r="B52" s="35" t="s">
+        <v>395</v>
+      </c>
+      <c r="C52" s="35" t="s">
+        <v>396</v>
+      </c>
+      <c r="D52" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="35" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="D53" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="29" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="70"/>
+      <c r="B54" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="20"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="70"/>
+      <c r="B55" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="20"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="70"/>
+      <c r="B56" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" s="20"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="B57" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="D57" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="29" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="70"/>
+      <c r="B58" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="20"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="70"/>
+      <c r="B59" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="D59" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="29" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="70"/>
+      <c r="B60" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="20"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="70"/>
+      <c r="B61" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="D61" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="29" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="70"/>
+      <c r="B62" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="20"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="B63" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="D63" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" s="29" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="70"/>
+      <c r="B64" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="20"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="70"/>
+      <c r="B65" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C65" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="D65" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="29" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="70"/>
+      <c r="B66" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D66" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" s="20"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="70"/>
+      <c r="B67" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" s="20"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C68" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="D68" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="29"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="70"/>
+      <c r="B69" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="20"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="70"/>
+      <c r="B70" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C70" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="D70" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="29" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="70"/>
+      <c r="B71" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D71" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="20"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="70"/>
+      <c r="B72" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C72" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="D72" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72" s="29" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="70"/>
+      <c r="B73" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C73" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="D73" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73" s="29" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="70"/>
+      <c r="B74" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C74" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="D74" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74" s="33" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="B75" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C75" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="D75" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E75" s="29" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="70"/>
+      <c r="B76" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C76" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="D76" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="29" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="70"/>
+      <c r="B77" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D77" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" s="20"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="B78" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C78" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="D78" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" s="29" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="70"/>
+      <c r="B79" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="D79" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" s="20"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="70"/>
+      <c r="B80" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D80" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80" s="20"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="B81" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C81" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="D81" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81" s="29" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="70"/>
+      <c r="B82" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C82" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="D82" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" s="29" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="70"/>
+      <c r="B83" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D83" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83" s="20"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="70"/>
+      <c r="B84" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D84" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" s="20"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="70" t="s">
+        <v>107</v>
+      </c>
+      <c r="B85" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C85" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="D85" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E85" s="29" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="70"/>
+      <c r="B86" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="C86" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="D86" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" s="29" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="70"/>
+      <c r="B87" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C87" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="D87" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" s="29" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="70"/>
+      <c r="B88" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C88" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D88" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E88" s="20"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="70" t="s">
+        <v>112</v>
+      </c>
+      <c r="B89" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C89" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="D89" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" s="29" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="70"/>
+      <c r="B90" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="C90" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="D90" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" s="29" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="70"/>
+      <c r="B91" s="35" t="s">
+        <v>398</v>
+      </c>
+      <c r="C91" s="35" t="s">
+        <v>399</v>
+      </c>
+      <c r="D91" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" s="28" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="70"/>
+      <c r="B92" s="35" t="s">
+        <v>400</v>
+      </c>
+      <c r="C92" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="D92" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E92" s="28" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="70"/>
+      <c r="B93" s="35" t="s">
+        <v>401</v>
+      </c>
+      <c r="C93" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="D93" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" s="28" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="70"/>
+      <c r="B94" s="35" t="s">
+        <v>402</v>
+      </c>
+      <c r="C94" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D94" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E94" s="28" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="B95" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C95" s="31" t="s">
+        <v>379</v>
+      </c>
+      <c r="D95" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" s="49" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="64"/>
+      <c r="B96" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="C96" s="31" t="s">
+        <v>379</v>
+      </c>
+      <c r="D96" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E96" s="50"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="72"/>
+      <c r="B97" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C97" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="D97" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E97" s="51"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="64" t="s">
+        <v>120</v>
+      </c>
+      <c r="B98" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C98" s="31" t="s">
+        <v>379</v>
+      </c>
+      <c r="D98" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" s="49" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="64"/>
+      <c r="B99" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="C99" s="31" t="s">
+        <v>379</v>
+      </c>
+      <c r="D99" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99" s="50"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="64"/>
+      <c r="B100" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="C100" s="31" t="s">
+        <v>379</v>
+      </c>
+      <c r="D100" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E100" s="50"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="64"/>
+      <c r="B101" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C101" s="31" t="s">
+        <v>379</v>
+      </c>
+      <c r="D101" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E101" s="50"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="64"/>
+      <c r="B102" s="31" t="s">
+        <v>434</v>
+      </c>
+      <c r="C102" s="31" t="s">
+        <v>379</v>
+      </c>
+      <c r="D102" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E102" s="50"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="64"/>
+      <c r="B103" s="31" t="s">
+        <v>435</v>
+      </c>
+      <c r="C103" s="31" t="s">
+        <v>379</v>
+      </c>
+      <c r="D103" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E103" s="51"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="44" t="s">
+        <v>403</v>
+      </c>
+      <c r="B104" s="36" t="s">
+        <v>404</v>
+      </c>
+      <c r="C104" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="D104" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E104" s="52" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="44"/>
+      <c r="B105" s="36" t="s">
+        <v>405</v>
+      </c>
+      <c r="C105" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="D105" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E105" s="53"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="44"/>
+      <c r="B106" s="36" t="s">
+        <v>406</v>
+      </c>
+      <c r="C106" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="D106" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E106" s="53"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="44"/>
+      <c r="B107" s="36" t="s">
+        <v>407</v>
+      </c>
+      <c r="C107" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="D107" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E107" s="53"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="44"/>
+      <c r="B108" s="36" t="s">
+        <v>408</v>
+      </c>
+      <c r="C108" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="D108" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E108" s="53"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="44"/>
+      <c r="B109" s="36" t="s">
+        <v>409</v>
+      </c>
+      <c r="C109" s="35" t="s">
+        <v>410</v>
+      </c>
+      <c r="D109" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E109" s="53"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="44"/>
+      <c r="B110" s="36" t="s">
+        <v>513</v>
+      </c>
+      <c r="C110" s="35" t="s">
+        <v>411</v>
+      </c>
+      <c r="D110" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E110" s="54"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="73" t="s">
+        <v>412</v>
+      </c>
+      <c r="B111" s="37" t="s">
+        <v>413</v>
+      </c>
+      <c r="C111" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="D111" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E111" s="52" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="27" t="s">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="73"/>
+      <c r="B112" s="35" t="s">
+        <v>414</v>
+      </c>
+      <c r="C112" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="D112" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="27"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="51" t="s">
+      <c r="E112" s="53"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="73"/>
+      <c r="B113" s="35" t="s">
+        <v>415</v>
+      </c>
+      <c r="C113" s="35" t="s">
         <v>379</v>
       </c>
-      <c r="D20" s="51" t="s">
+      <c r="D113" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E113" s="53"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="73"/>
+      <c r="B114" s="35" t="s">
+        <v>514</v>
+      </c>
+      <c r="C114" s="35" t="s">
+        <v>399</v>
+      </c>
+      <c r="D114" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E114" s="53"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="73"/>
+      <c r="B115" s="35" t="s">
+        <v>416</v>
+      </c>
+      <c r="C115" s="35" t="s">
+        <v>417</v>
+      </c>
+      <c r="D115" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E115" s="53"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="73"/>
+      <c r="B116" s="35" t="s">
+        <v>418</v>
+      </c>
+      <c r="C116" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="D116" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E116" s="53"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="73"/>
+      <c r="B117" s="35" t="s">
+        <v>419</v>
+      </c>
+      <c r="C117" s="35" t="s">
+        <v>420</v>
+      </c>
+      <c r="D117" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E117" s="53"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="73"/>
+      <c r="B118" s="35" t="s">
+        <v>421</v>
+      </c>
+      <c r="C118" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="D118" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E118" s="53"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="73"/>
+      <c r="B119" s="35" t="s">
+        <v>422</v>
+      </c>
+      <c r="C119" s="35" t="s">
+        <v>423</v>
+      </c>
+      <c r="D119" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E119" s="54"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="65" t="s">
+        <v>424</v>
+      </c>
+      <c r="B120" s="35" t="s">
+        <v>425</v>
+      </c>
+      <c r="C120" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="D120" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E120" s="52" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="73"/>
+      <c r="B121" s="35" t="s">
+        <v>426</v>
+      </c>
+      <c r="C121" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E121" s="53"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="73"/>
+      <c r="B122" s="35" t="s">
+        <v>427</v>
+      </c>
+      <c r="C122" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="D122" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E122" s="53"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="73"/>
+      <c r="B123" s="35" t="s">
+        <v>428</v>
+      </c>
+      <c r="C123" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="D123" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E123" s="53"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="73"/>
+      <c r="B124" s="35" t="s">
+        <v>429</v>
+      </c>
+      <c r="C124" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="D124" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E124" s="53"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="73"/>
+      <c r="B125" s="35" t="s">
+        <v>430</v>
+      </c>
+      <c r="C125" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="D125" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E125" s="53"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="74"/>
+      <c r="B126" s="35" t="s">
+        <v>431</v>
+      </c>
+      <c r="C126" s="35" t="s">
+        <v>432</v>
+      </c>
+      <c r="D126" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E126" s="54"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="26" t="s">
+        <v>433</v>
+      </c>
+      <c r="B127" s="35" t="s">
+        <v>414</v>
+      </c>
+      <c r="C127" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="D127" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E127" s="35" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="B128" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C128" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="D128" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="51" t="s">
+      <c r="E128" s="29" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="28"/>
-      <c r="B21" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="27" t="s">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="65"/>
+      <c r="B129" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C129" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D129" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="27"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="28"/>
-      <c r="B22" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="27" t="s">
+      <c r="E129" s="20"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="65"/>
+      <c r="B130" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C130" s="29" t="s">
         <v>379</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D130" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="27"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="28"/>
-      <c r="B23" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="27" t="s">
+      <c r="E130" s="29" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="65"/>
+      <c r="B131" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C131" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D131" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E131" s="20"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="65"/>
+      <c r="B132" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C132" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="D132" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E132" s="20"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="65"/>
+      <c r="B133" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C133" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D133" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E133" s="20"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="65"/>
+      <c r="B134" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="C134" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="D134" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E134" s="32" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="65"/>
+      <c r="B135" s="35" t="s">
+        <v>436</v>
+      </c>
+      <c r="C135" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="D135" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="27"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="28"/>
-      <c r="B24" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="27" t="s">
+      <c r="E135" s="35" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="65"/>
+      <c r="B136" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="C136" s="35" t="s">
         <v>379</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D136" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="27"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="28"/>
-      <c r="B25" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="30" t="s">
+      <c r="E136" s="35" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="65"/>
+      <c r="B137" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="C137" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="D137" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E137" s="35" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="65"/>
+      <c r="B138" s="35" t="s">
+        <v>440</v>
+      </c>
+      <c r="C138" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="D138" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E138" s="35" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="65"/>
+      <c r="B139" s="35" t="s">
+        <v>441</v>
+      </c>
+      <c r="C139" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="D139" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E139" s="35" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="65"/>
+      <c r="B140" s="28" t="s">
+        <v>442</v>
+      </c>
+      <c r="C140" s="28" t="s">
         <v>379</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D140" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E140" s="28" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="66" t="s">
+        <v>138</v>
+      </c>
+      <c r="B141" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="C141" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="D141" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E141" s="29" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="67"/>
+      <c r="B142" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C142" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="D142" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="27"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="28"/>
-      <c r="B26" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="27" t="s">
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="67"/>
+      <c r="B143" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C143" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D143" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E143" s="20"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="67"/>
+      <c r="B144" s="35" t="s">
+        <v>443</v>
+      </c>
+      <c r="C144" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="D144" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E144" s="35" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="68"/>
+      <c r="B145" s="35" t="s">
+        <v>444</v>
+      </c>
+      <c r="C145" s="35" t="s">
         <v>379</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D145" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E145" s="35" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="71" t="s">
+        <v>142</v>
+      </c>
+      <c r="B146" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="C146" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="D146" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="27"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="28"/>
-      <c r="B27" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="30" t="s">
+      <c r="E146" s="55" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="71"/>
+      <c r="B147" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="C147" s="38" t="s">
         <v>379</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D147" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="27"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="28"/>
-      <c r="B28" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="27" t="s">
+      <c r="E147" s="56"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="71"/>
+      <c r="B148" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="C148" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="D148" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="27"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" s="44" t="s">
+      <c r="E148" s="56"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="71"/>
+      <c r="B149" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="C149" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="D149" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E149" s="57"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="69" t="s">
+        <v>148</v>
+      </c>
+      <c r="B150" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="C150" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="D150" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E150" s="29" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="69"/>
+      <c r="B151" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C151" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="D151" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="69"/>
+      <c r="B152" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="C152" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="D152" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E152" s="20"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="69"/>
+      <c r="B153" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="C153" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="D153" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="E153" s="29" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="69"/>
+      <c r="B154" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="C154" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="D154" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="E154" s="29" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="69"/>
+      <c r="B155" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C155" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="D155" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="44" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="27" t="s">
+      <c r="E155" s="22"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="70" t="s">
+        <v>153</v>
+      </c>
+      <c r="B156" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="C156" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="D156" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E156" s="29" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="70"/>
+      <c r="B157" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="C157" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="D157" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E157" s="29" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="70" t="s">
+        <v>158</v>
+      </c>
+      <c r="B158" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="C158" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="D158" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E158" s="29" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="70"/>
+      <c r="B159" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C159" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="D159" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E159" s="20"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="70"/>
+      <c r="B160" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="C160" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="D160" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E160" s="29" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="70"/>
+      <c r="B161" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C161" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="D161" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E161" s="20"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="58" t="s">
+        <v>445</v>
+      </c>
+      <c r="B162" s="28" t="s">
+        <v>446</v>
+      </c>
+      <c r="C162" s="28" t="s">
+        <v>379</v>
+      </c>
+      <c r="D162" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E162" s="58" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="59"/>
+      <c r="B163" s="28" t="s">
+        <v>447</v>
+      </c>
+      <c r="C163" s="28" t="s">
+        <v>379</v>
+      </c>
+      <c r="D163" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E163" s="59"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="59"/>
+      <c r="B164" s="28" t="s">
+        <v>448</v>
+      </c>
+      <c r="C164" s="28" t="s">
+        <v>397</v>
+      </c>
+      <c r="D164" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="27"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="51" t="s">
+      <c r="E164" s="59"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="59"/>
+      <c r="B165" s="28" t="s">
+        <v>449</v>
+      </c>
+      <c r="C165" s="28" t="s">
         <v>379</v>
       </c>
-      <c r="D31" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="51" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="31"/>
-      <c r="B32" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="27" t="s">
+      <c r="D165" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E165" s="59"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="59"/>
+      <c r="B166" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="C166" s="28" t="s">
+        <v>451</v>
+      </c>
+      <c r="D166" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E166" s="59"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="60"/>
+      <c r="B167" s="28" t="s">
+        <v>452</v>
+      </c>
+      <c r="C167" s="28" t="s">
+        <v>384</v>
+      </c>
+      <c r="D167" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E167" s="60"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="61" t="s">
+        <v>453</v>
+      </c>
+      <c r="B168" s="28" t="s">
+        <v>454</v>
+      </c>
+      <c r="C168" s="28" t="s">
         <v>379</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="D168" s="28" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="31"/>
-      <c r="B33" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="27" t="s">
+      <c r="E168" s="61" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="62"/>
+      <c r="B169" s="28" t="s">
+        <v>455</v>
+      </c>
+      <c r="C169" s="28" t="s">
+        <v>397</v>
+      </c>
+      <c r="D169" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E169" s="59"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="62"/>
+      <c r="B170" s="28" t="s">
+        <v>456</v>
+      </c>
+      <c r="C170" s="28" t="s">
+        <v>397</v>
+      </c>
+      <c r="D170" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E170" s="59"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="62"/>
+      <c r="B171" s="28" t="s">
+        <v>457</v>
+      </c>
+      <c r="C171" s="28" t="s">
         <v>379</v>
       </c>
-      <c r="D33" s="27" t="s">
+      <c r="D171" s="28" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="31"/>
-      <c r="B34" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34" s="53" t="s">
-        <v>378</v>
-      </c>
-      <c r="E34" s="51" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="31"/>
-      <c r="B35" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" s="53" t="s">
-        <v>378</v>
-      </c>
-      <c r="E35" s="51" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="31"/>
-      <c r="B36" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" s="27" t="s">
+      <c r="E171" s="59"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="62"/>
+      <c r="B172" s="28" t="s">
+        <v>458</v>
+      </c>
+      <c r="C172" s="28" t="s">
+        <v>379</v>
+      </c>
+      <c r="D172" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="27"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="31"/>
-      <c r="B37" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="D37" s="27" t="s">
+      <c r="E172" s="59"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="63"/>
+      <c r="B173" s="28" t="s">
+        <v>459</v>
+      </c>
+      <c r="C173" s="28" t="s">
+        <v>397</v>
+      </c>
+      <c r="D173" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E37" s="27"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="31"/>
-      <c r="B38" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38" s="27" t="s">
+      <c r="E173" s="60"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="58" t="s">
+        <v>460</v>
+      </c>
+      <c r="B174" s="28" t="s">
+        <v>461</v>
+      </c>
+      <c r="C174" s="28" t="s">
+        <v>379</v>
+      </c>
+      <c r="D174" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E174" s="61" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="59"/>
+      <c r="B175" s="28" t="s">
+        <v>462</v>
+      </c>
+      <c r="C175" s="28" t="s">
+        <v>379</v>
+      </c>
+      <c r="D175" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E175" s="59"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="59"/>
+      <c r="B176" s="28" t="s">
+        <v>463</v>
+      </c>
+      <c r="C176" s="28" t="s">
+        <v>437</v>
+      </c>
+      <c r="D176" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E176" s="59"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="59"/>
+      <c r="B177" s="28" t="s">
+        <v>464</v>
+      </c>
+      <c r="C177" s="28" t="s">
+        <v>437</v>
+      </c>
+      <c r="D177" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E177" s="59"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="59"/>
+      <c r="B178" s="28" t="s">
+        <v>465</v>
+      </c>
+      <c r="C178" s="28" t="s">
+        <v>379</v>
+      </c>
+      <c r="D178" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E178" s="59"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="59"/>
+      <c r="B179" s="28" t="s">
+        <v>466</v>
+      </c>
+      <c r="C179" s="28" t="s">
+        <v>467</v>
+      </c>
+      <c r="D179" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="27"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="31"/>
-      <c r="B39" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="D39" s="27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="31"/>
-      <c r="B40" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C40" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D40" s="27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="31"/>
-      <c r="B41" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="D41" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" s="27"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="31"/>
-      <c r="B42" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="C42" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="D42" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" s="54" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="31"/>
-      <c r="B43" s="47" t="s">
-        <v>385</v>
-      </c>
-      <c r="C43" s="47" t="s">
-        <v>386</v>
-      </c>
-      <c r="D43" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43" s="47" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="31"/>
-      <c r="B44" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="C44" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="D44" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="E44" s="47" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="31"/>
-      <c r="B45" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="D45" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E45" s="27"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="31"/>
-      <c r="B46" s="62" t="s">
-        <v>92</v>
-      </c>
-      <c r="C46" s="62" t="s">
-        <v>93</v>
-      </c>
-      <c r="D46" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="E46" s="62" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="31"/>
-      <c r="B47" s="62" t="s">
-        <v>387</v>
-      </c>
-      <c r="C47" s="62" t="s">
-        <v>388</v>
-      </c>
-      <c r="D47" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="E47" s="62" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="31"/>
-      <c r="B48" s="62" t="s">
-        <v>389</v>
-      </c>
-      <c r="C48" s="62" t="s">
+      <c r="E179" s="59"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="60"/>
+      <c r="B180" s="28" t="s">
+        <v>468</v>
+      </c>
+      <c r="C180" s="28" t="s">
+        <v>384</v>
+      </c>
+      <c r="D180" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E180" s="60"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="58" t="s">
+        <v>469</v>
+      </c>
+      <c r="B181" s="28" t="s">
+        <v>470</v>
+      </c>
+      <c r="C181" s="28" t="s">
         <v>379</v>
       </c>
-      <c r="D48" s="62" t="s">
+      <c r="D181" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="47" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="31"/>
-      <c r="B49" s="62" t="s">
-        <v>390</v>
-      </c>
-      <c r="C49" s="62" t="s">
-        <v>384</v>
-      </c>
-      <c r="D49" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="E49" s="47" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="31"/>
-      <c r="B50" s="62" t="s">
-        <v>391</v>
-      </c>
-      <c r="C50" s="62" t="s">
-        <v>392</v>
-      </c>
-      <c r="D50" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="E50" s="62" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="31"/>
-      <c r="B51" s="62" t="s">
-        <v>393</v>
-      </c>
-      <c r="C51" s="62" t="s">
-        <v>394</v>
-      </c>
-      <c r="D51" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="E51" s="62" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="31"/>
-      <c r="B52" s="62" t="s">
-        <v>395</v>
-      </c>
-      <c r="C52" s="62" t="s">
-        <v>396</v>
-      </c>
-      <c r="D52" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="E52" s="62" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="B53" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="C53" s="51" t="s">
+      <c r="E181" s="58" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="59"/>
+      <c r="B182" s="28" t="s">
+        <v>471</v>
+      </c>
+      <c r="C182" s="28" t="s">
         <v>379</v>
       </c>
-      <c r="D53" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="E53" s="51" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="28"/>
-      <c r="B54" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="C54" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="D54" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E54" s="27"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="28"/>
-      <c r="B55" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="C55" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="D55" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E55" s="27"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="28"/>
-      <c r="B56" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="C56" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D56" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E56" s="27"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="B57" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="C57" s="51" t="s">
+      <c r="D182" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E182" s="59"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="59"/>
+      <c r="B183" s="28" t="s">
+        <v>472</v>
+      </c>
+      <c r="C183" s="28" t="s">
         <v>379</v>
       </c>
-      <c r="D57" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" s="51" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="28"/>
-      <c r="B58" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="C58" s="27" t="s">
+      <c r="D183" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E183" s="59"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="60"/>
+      <c r="B184" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="C184" s="28" t="s">
         <v>379</v>
       </c>
-      <c r="D58" s="27" t="s">
+      <c r="D184" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E58" s="27"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="28"/>
-      <c r="B59" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="C59" s="51" t="s">
+      <c r="E184" s="60"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="58" t="s">
+        <v>474</v>
+      </c>
+      <c r="B185" s="28" t="s">
+        <v>475</v>
+      </c>
+      <c r="C185" s="28" t="s">
         <v>379</v>
       </c>
-      <c r="D59" s="51" t="s">
+      <c r="D185" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E59" s="51" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="28"/>
-      <c r="B60" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C60" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D60" s="27" t="s">
+      <c r="E185" s="58" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="59"/>
+      <c r="B186" s="28" t="s">
+        <v>476</v>
+      </c>
+      <c r="C186" s="28" t="s">
+        <v>437</v>
+      </c>
+      <c r="D186" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E60" s="27"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="28"/>
-      <c r="B61" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="C61" s="51" t="s">
-        <v>379</v>
-      </c>
-      <c r="D61" s="51" t="s">
+      <c r="E186" s="59"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="60"/>
+      <c r="B187" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C187" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D187" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E61" s="51" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="28"/>
-      <c r="B62" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="C62" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D62" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E62" s="27"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="B63" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="C63" s="51" t="s">
-        <v>379</v>
-      </c>
-      <c r="D63" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="E63" s="51" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="28"/>
-      <c r="B64" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="C64" s="27" t="s">
-        <v>379</v>
-      </c>
-      <c r="D64" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E64" s="27"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" s="28"/>
-      <c r="B65" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="C65" s="51" t="s">
-        <v>379</v>
-      </c>
-      <c r="D65" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="E65" s="51" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="28"/>
-      <c r="B66" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="C66" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="D66" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E66" s="27"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" s="28"/>
-      <c r="B67" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="C67" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="D67" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E67" s="27"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="B68" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="C68" s="51" t="s">
-        <v>379</v>
-      </c>
-      <c r="D68" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="E68" s="51"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" s="28"/>
-      <c r="B69" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="C69" s="27" t="s">
-        <v>379</v>
-      </c>
-      <c r="D69" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E69" s="27"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" s="28"/>
-      <c r="B70" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="C70" s="51" t="s">
-        <v>379</v>
-      </c>
-      <c r="D70" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="E70" s="51" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" s="28"/>
-      <c r="B71" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="C71" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D71" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E71" s="27"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" s="28"/>
-      <c r="B72" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="C72" s="51" t="s">
-        <v>379</v>
-      </c>
-      <c r="D72" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="E72" s="51" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" s="28"/>
-      <c r="B73" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="C73" s="51" t="s">
-        <v>379</v>
-      </c>
-      <c r="D73" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="E73" s="51" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A74" s="28"/>
-      <c r="B74" s="80" t="s">
-        <v>92</v>
-      </c>
-      <c r="C74" s="54" t="s">
-        <v>397</v>
-      </c>
-      <c r="D74" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="E74" s="55" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="B75" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="C75" s="51" t="s">
-        <v>379</v>
-      </c>
-      <c r="D75" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="E75" s="51" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" s="28"/>
-      <c r="B76" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="C76" s="51" t="s">
-        <v>379</v>
-      </c>
-      <c r="D76" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="E76" s="51" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" s="28"/>
-      <c r="B77" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="C77" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D77" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E77" s="27"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="B78" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="C78" s="51" t="s">
-        <v>379</v>
-      </c>
-      <c r="D78" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="E78" s="51" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" s="28"/>
-      <c r="B79" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="C79" s="27" t="s">
-        <v>379</v>
-      </c>
-      <c r="D79" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E79" s="27"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" s="28"/>
-      <c r="B80" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="C80" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D80" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E80" s="27"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A81" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="B81" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="C81" s="51" t="s">
-        <v>379</v>
-      </c>
-      <c r="D81" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="E81" s="51" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A82" s="28"/>
-      <c r="B82" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="C82" s="51" t="s">
-        <v>379</v>
-      </c>
-      <c r="D82" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="E82" s="51" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A83" s="28"/>
-      <c r="B83" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="C83" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D83" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E83" s="27"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A84" s="28"/>
-      <c r="B84" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="C84" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="D84" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E84" s="27"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A85" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="B85" s="51" t="s">
-        <v>108</v>
-      </c>
-      <c r="C85" s="51" t="s">
-        <v>379</v>
-      </c>
-      <c r="D85" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="E85" s="51" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A86" s="28"/>
-      <c r="B86" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="C86" s="51" t="s">
-        <v>379</v>
-      </c>
-      <c r="D86" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="E86" s="51" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A87" s="28"/>
-      <c r="B87" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="C87" s="51" t="s">
-        <v>379</v>
-      </c>
-      <c r="D87" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="E87" s="51" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A88" s="28"/>
-      <c r="B88" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="C88" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D88" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E88" s="27"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A89" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="B89" s="51" t="s">
-        <v>113</v>
-      </c>
-      <c r="C89" s="51" t="s">
-        <v>379</v>
-      </c>
-      <c r="D89" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="E89" s="51" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A90" s="28"/>
-      <c r="B90" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="C90" s="51" t="s">
-        <v>379</v>
-      </c>
-      <c r="D90" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="E90" s="51" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A91" s="28"/>
-      <c r="B91" s="62" t="s">
-        <v>398</v>
-      </c>
-      <c r="C91" s="62" t="s">
-        <v>399</v>
-      </c>
-      <c r="D91" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="E91" s="47" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A92" s="28"/>
-      <c r="B92" s="62" t="s">
-        <v>400</v>
-      </c>
-      <c r="C92" s="62" t="s">
-        <v>379</v>
-      </c>
-      <c r="D92" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="E92" s="47" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A93" s="28"/>
-      <c r="B93" s="62" t="s">
-        <v>401</v>
-      </c>
-      <c r="C93" s="62" t="s">
-        <v>379</v>
-      </c>
-      <c r="D93" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="E93" s="47" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A94" s="28"/>
-      <c r="B94" s="62" t="s">
-        <v>402</v>
-      </c>
-      <c r="C94" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="D94" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="E94" s="47" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A95" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="B95" s="53" t="s">
-        <v>116</v>
-      </c>
-      <c r="C95" s="53" t="s">
-        <v>379</v>
-      </c>
-      <c r="D95" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="E95" s="58" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A96" s="56"/>
-      <c r="B96" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="C96" s="53" t="s">
-        <v>379</v>
-      </c>
-      <c r="D96" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="E96" s="59"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A97" s="57"/>
-      <c r="B97" s="53" t="s">
-        <v>118</v>
-      </c>
-      <c r="C97" s="53" t="s">
-        <v>119</v>
-      </c>
-      <c r="D97" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="E97" s="60"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A98" s="56" t="s">
-        <v>120</v>
-      </c>
-      <c r="B98" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="C98" s="53" t="s">
-        <v>379</v>
-      </c>
-      <c r="D98" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="E98" s="58" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A99" s="56"/>
-      <c r="B99" s="53" t="s">
-        <v>124</v>
-      </c>
-      <c r="C99" s="53" t="s">
-        <v>379</v>
-      </c>
-      <c r="D99" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="E99" s="59"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A100" s="56"/>
-      <c r="B100" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="C100" s="53" t="s">
-        <v>379</v>
-      </c>
-      <c r="D100" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="E100" s="59"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A101" s="56"/>
-      <c r="B101" s="53" t="s">
-        <v>127</v>
-      </c>
-      <c r="C101" s="53" t="s">
-        <v>379</v>
-      </c>
-      <c r="D101" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="E101" s="59"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A102" s="56"/>
-      <c r="B102" s="53" t="s">
-        <v>437</v>
-      </c>
-      <c r="C102" s="53" t="s">
-        <v>379</v>
-      </c>
-      <c r="D102" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="E102" s="59"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A103" s="56"/>
-      <c r="B103" s="53" t="s">
-        <v>438</v>
-      </c>
-      <c r="C103" s="53" t="s">
-        <v>379</v>
-      </c>
-      <c r="D103" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="E103" s="60"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A104" s="63" t="s">
-        <v>403</v>
-      </c>
-      <c r="B104" s="68" t="s">
-        <v>404</v>
-      </c>
-      <c r="C104" s="62" t="s">
-        <v>379</v>
-      </c>
-      <c r="D104" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="E104" s="82" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A105" s="63"/>
-      <c r="B105" s="68" t="s">
-        <v>405</v>
-      </c>
-      <c r="C105" s="62" t="s">
-        <v>379</v>
-      </c>
-      <c r="D105" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="E105" s="71"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A106" s="63"/>
-      <c r="B106" s="68" t="s">
-        <v>406</v>
-      </c>
-      <c r="C106" s="62" t="s">
-        <v>379</v>
-      </c>
-      <c r="D106" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="E106" s="71"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A107" s="63"/>
-      <c r="B107" s="68" t="s">
-        <v>407</v>
-      </c>
-      <c r="C107" s="62" t="s">
-        <v>379</v>
-      </c>
-      <c r="D107" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="E107" s="71"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A108" s="63"/>
-      <c r="B108" s="68" t="s">
-        <v>408</v>
-      </c>
-      <c r="C108" s="62" t="s">
-        <v>379</v>
-      </c>
-      <c r="D108" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="E108" s="71"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A109" s="63"/>
-      <c r="B109" s="68" t="s">
-        <v>409</v>
-      </c>
-      <c r="C109" s="62" t="s">
-        <v>410</v>
-      </c>
-      <c r="D109" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="E109" s="71"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A110" s="63"/>
-      <c r="B110" s="68" t="s">
-        <v>411</v>
-      </c>
-      <c r="C110" s="62" t="s">
-        <v>412</v>
-      </c>
-      <c r="D110" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="E110" s="72"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A111" s="64" t="s">
-        <v>413</v>
-      </c>
-      <c r="B111" s="69" t="s">
-        <v>414</v>
-      </c>
-      <c r="C111" s="62" t="s">
-        <v>379</v>
-      </c>
-      <c r="D111" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="E111" s="82" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A112" s="64"/>
-      <c r="B112" s="62" t="s">
-        <v>415</v>
-      </c>
-      <c r="C112" s="62" t="s">
-        <v>379</v>
-      </c>
-      <c r="D112" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="E112" s="71"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A113" s="64"/>
-      <c r="B113" s="62" t="s">
-        <v>416</v>
-      </c>
-      <c r="C113" s="62" t="s">
-        <v>379</v>
-      </c>
-      <c r="D113" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="E113" s="71"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A114" s="64"/>
-      <c r="B114" s="62" t="s">
-        <v>417</v>
-      </c>
-      <c r="C114" s="62" t="s">
-        <v>399</v>
-      </c>
-      <c r="D114" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="E114" s="71"/>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A115" s="64"/>
-      <c r="B115" s="62" t="s">
-        <v>418</v>
-      </c>
-      <c r="C115" s="62" t="s">
-        <v>419</v>
-      </c>
-      <c r="D115" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="E115" s="71"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A116" s="64"/>
-      <c r="B116" s="62" t="s">
-        <v>420</v>
-      </c>
-      <c r="C116" s="62" t="s">
-        <v>379</v>
-      </c>
-      <c r="D116" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="E116" s="71"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A117" s="64"/>
-      <c r="B117" s="62" t="s">
-        <v>421</v>
-      </c>
-      <c r="C117" s="62" t="s">
-        <v>422</v>
-      </c>
-      <c r="D117" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="E117" s="71"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A118" s="64"/>
-      <c r="B118" s="62" t="s">
-        <v>423</v>
-      </c>
-      <c r="C118" s="62" t="s">
-        <v>397</v>
-      </c>
-      <c r="D118" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="E118" s="71"/>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A119" s="64"/>
-      <c r="B119" s="62" t="s">
-        <v>424</v>
-      </c>
-      <c r="C119" s="62" t="s">
-        <v>425</v>
-      </c>
-      <c r="D119" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="E119" s="72"/>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A120" s="65" t="s">
-        <v>426</v>
-      </c>
-      <c r="B120" s="62" t="s">
-        <v>427</v>
-      </c>
-      <c r="C120" s="62" t="s">
-        <v>379</v>
-      </c>
-      <c r="D120" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="E120" s="82" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A121" s="64"/>
-      <c r="B121" s="62" t="s">
-        <v>428</v>
-      </c>
-      <c r="C121" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="D121" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="E121" s="71"/>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A122" s="64"/>
-      <c r="B122" s="62" t="s">
-        <v>429</v>
-      </c>
-      <c r="C122" s="62" t="s">
-        <v>379</v>
-      </c>
-      <c r="D122" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="E122" s="71"/>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A123" s="64"/>
-      <c r="B123" s="62" t="s">
-        <v>430</v>
-      </c>
-      <c r="C123" s="62" t="s">
-        <v>379</v>
-      </c>
-      <c r="D123" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="E123" s="71"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A124" s="64"/>
-      <c r="B124" s="62" t="s">
-        <v>431</v>
-      </c>
-      <c r="C124" s="62" t="s">
-        <v>379</v>
-      </c>
-      <c r="D124" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="E124" s="71"/>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A125" s="64"/>
-      <c r="B125" s="62" t="s">
-        <v>432</v>
-      </c>
-      <c r="C125" s="62" t="s">
-        <v>379</v>
-      </c>
-      <c r="D125" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="E125" s="71"/>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A126" s="66"/>
-      <c r="B126" s="62" t="s">
-        <v>433</v>
-      </c>
-      <c r="C126" s="62" t="s">
-        <v>434</v>
-      </c>
-      <c r="D126" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="E126" s="72"/>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A127" s="67" t="s">
-        <v>435</v>
-      </c>
-      <c r="B127" s="62" t="s">
-        <v>436</v>
-      </c>
-      <c r="C127" s="62" t="s">
-        <v>379</v>
-      </c>
-      <c r="D127" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="E127" s="62" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A128" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="B128" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="C128" s="51" t="s">
-        <v>379</v>
-      </c>
-      <c r="D128" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="E128" s="51" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A129" s="31"/>
-      <c r="B129" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="C129" s="27" t="s">
-        <v>379</v>
-      </c>
-      <c r="D129" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E129" s="27"/>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A130" s="31"/>
-      <c r="B130" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="C130" s="51" t="s">
-        <v>379</v>
-      </c>
-      <c r="D130" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="E130" s="51" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A131" s="31"/>
-      <c r="B131" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="C131" s="27" t="s">
-        <v>379</v>
-      </c>
-      <c r="D131" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E131" s="27"/>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A132" s="31"/>
-      <c r="B132" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="C132" s="27" t="s">
-        <v>379</v>
-      </c>
-      <c r="D132" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E132" s="27"/>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A133" s="31"/>
-      <c r="B133" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="C133" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="D133" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E133" s="27"/>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A134" s="31"/>
-      <c r="B134" s="53" t="s">
-        <v>136</v>
-      </c>
-      <c r="C134" s="53" t="s">
-        <v>137</v>
-      </c>
-      <c r="D134" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="E134" s="54" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A135" s="31"/>
-      <c r="B135" s="62" t="s">
-        <v>439</v>
-      </c>
-      <c r="C135" s="62" t="s">
-        <v>440</v>
-      </c>
-      <c r="D135" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="E135" s="62" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A136" s="31"/>
-      <c r="B136" s="62" t="s">
-        <v>441</v>
-      </c>
-      <c r="C136" s="62" t="s">
-        <v>379</v>
-      </c>
-      <c r="D136" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="E136" s="62" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A137" s="31"/>
-      <c r="B137" s="62" t="s">
-        <v>442</v>
-      </c>
-      <c r="C137" s="62" t="s">
-        <v>397</v>
-      </c>
-      <c r="D137" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="E137" s="62" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A138" s="31"/>
-      <c r="B138" s="62" t="s">
-        <v>443</v>
-      </c>
-      <c r="C138" s="62" t="s">
-        <v>397</v>
-      </c>
-      <c r="D138" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="E138" s="62" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A139" s="31"/>
-      <c r="B139" s="62" t="s">
-        <v>444</v>
-      </c>
-      <c r="C139" s="62" t="s">
-        <v>397</v>
-      </c>
-      <c r="D139" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="E139" s="62" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A140" s="31"/>
-      <c r="B140" s="47" t="s">
-        <v>445</v>
-      </c>
-      <c r="C140" s="47" t="s">
-        <v>379</v>
-      </c>
-      <c r="D140" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="E140" s="47" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A141" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="B141" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="C141" s="51" t="s">
-        <v>379</v>
-      </c>
-      <c r="D141" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="E141" s="51" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A142" s="33"/>
-      <c r="B142" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="C142" s="27" t="s">
-        <v>379</v>
-      </c>
-      <c r="D142" s="27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A143" s="33"/>
-      <c r="B143" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="C143" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D143" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E143" s="27"/>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A144" s="33"/>
-      <c r="B144" s="62" t="s">
-        <v>446</v>
-      </c>
-      <c r="C144" s="62" t="s">
-        <v>440</v>
-      </c>
-      <c r="D144" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="E144" s="62" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A145" s="34"/>
-      <c r="B145" s="62" t="s">
-        <v>447</v>
-      </c>
-      <c r="C145" s="62" t="s">
-        <v>379</v>
-      </c>
-      <c r="D145" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="E145" s="62" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A146" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="B146" s="73" t="s">
-        <v>143</v>
-      </c>
-      <c r="C146" s="73" t="s">
-        <v>379</v>
-      </c>
-      <c r="D146" s="73" t="s">
-        <v>6</v>
-      </c>
-      <c r="E146" s="74" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A147" s="42"/>
-      <c r="B147" s="73" t="s">
-        <v>144</v>
-      </c>
-      <c r="C147" s="73" t="s">
-        <v>379</v>
-      </c>
-      <c r="D147" s="73" t="s">
-        <v>9</v>
-      </c>
-      <c r="E147" s="75"/>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A148" s="42"/>
-      <c r="B148" s="73" t="s">
-        <v>146</v>
-      </c>
-      <c r="C148" s="73" t="s">
-        <v>379</v>
-      </c>
-      <c r="D148" s="73" t="s">
-        <v>9</v>
-      </c>
-      <c r="E148" s="75"/>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A149" s="42"/>
-      <c r="B149" s="73" t="s">
-        <v>147</v>
-      </c>
-      <c r="C149" s="73" t="s">
-        <v>379</v>
-      </c>
-      <c r="D149" s="73" t="s">
-        <v>9</v>
-      </c>
-      <c r="E149" s="76"/>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A150" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="B150" s="51" t="s">
-        <v>149</v>
-      </c>
-      <c r="C150" s="51" t="s">
-        <v>379</v>
-      </c>
-      <c r="D150" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="E150" s="51" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A151" s="35"/>
-      <c r="B151" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="C151" s="27" t="s">
-        <v>379</v>
-      </c>
-      <c r="D151" s="27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A152" s="35"/>
-      <c r="B152" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="C152" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="D152" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E152" s="27"/>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A153" s="35"/>
-      <c r="B153" s="54" t="s">
-        <v>150</v>
-      </c>
-      <c r="C153" s="54" t="s">
-        <v>379</v>
-      </c>
-      <c r="D153" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="E153" s="51" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A154" s="35"/>
-      <c r="B154" s="51" t="s">
-        <v>154</v>
-      </c>
-      <c r="C154" s="54" t="s">
-        <v>379</v>
-      </c>
-      <c r="D154" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="E154" s="51" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A155" s="35"/>
-      <c r="B155" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="C155" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="D155" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E155" s="32"/>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A156" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="B156" s="51" t="s">
-        <v>157</v>
-      </c>
-      <c r="C156" s="51" t="s">
-        <v>379</v>
-      </c>
-      <c r="D156" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="E156" s="51" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A157" s="28"/>
-      <c r="B157" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="C157" s="51" t="s">
-        <v>379</v>
-      </c>
-      <c r="D157" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="E157" s="51" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A158" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="B158" s="51" t="s">
-        <v>159</v>
-      </c>
-      <c r="C158" s="51" t="s">
-        <v>379</v>
-      </c>
-      <c r="D158" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="E158" s="51" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A159" s="28"/>
-      <c r="B159" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="C159" s="27" t="s">
-        <v>379</v>
-      </c>
-      <c r="D159" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E159" s="27"/>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A160" s="28"/>
-      <c r="B160" s="51" t="s">
-        <v>160</v>
-      </c>
-      <c r="C160" s="51" t="s">
-        <v>379</v>
-      </c>
-      <c r="D160" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="E160" s="51" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A161" s="28"/>
-      <c r="B161" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="C161" s="27" t="s">
-        <v>379</v>
-      </c>
-      <c r="D161" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E161" s="27"/>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A162" s="43" t="s">
-        <v>448</v>
-      </c>
-      <c r="B162" s="47" t="s">
-        <v>449</v>
-      </c>
-      <c r="C162" s="47" t="s">
-        <v>379</v>
-      </c>
-      <c r="D162" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="E162" s="43" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A163" s="45"/>
-      <c r="B163" s="47" t="s">
-        <v>450</v>
-      </c>
-      <c r="C163" s="47" t="s">
-        <v>379</v>
-      </c>
-      <c r="D163" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="E163" s="45"/>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A164" s="45"/>
-      <c r="B164" s="47" t="s">
-        <v>451</v>
-      </c>
-      <c r="C164" s="47" t="s">
-        <v>397</v>
-      </c>
-      <c r="D164" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="E164" s="45"/>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A165" s="45"/>
-      <c r="B165" s="47" t="s">
-        <v>452</v>
-      </c>
-      <c r="C165" s="47" t="s">
-        <v>379</v>
-      </c>
-      <c r="D165" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="E165" s="45"/>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A166" s="45"/>
-      <c r="B166" s="47" t="s">
-        <v>453</v>
-      </c>
-      <c r="C166" s="47" t="s">
-        <v>454</v>
-      </c>
-      <c r="D166" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="E166" s="45"/>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A167" s="46"/>
-      <c r="B167" s="47" t="s">
-        <v>455</v>
-      </c>
-      <c r="C167" s="47" t="s">
-        <v>384</v>
-      </c>
-      <c r="D167" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="E167" s="46"/>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A168" s="48" t="s">
-        <v>456</v>
-      </c>
-      <c r="B168" s="47" t="s">
-        <v>457</v>
-      </c>
-      <c r="C168" s="47" t="s">
-        <v>379</v>
-      </c>
-      <c r="D168" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="E168" s="48" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A169" s="49"/>
-      <c r="B169" s="47" t="s">
-        <v>458</v>
-      </c>
-      <c r="C169" s="47" t="s">
-        <v>397</v>
-      </c>
-      <c r="D169" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="E169" s="45"/>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A170" s="49"/>
-      <c r="B170" s="47" t="s">
-        <v>459</v>
-      </c>
-      <c r="C170" s="47" t="s">
-        <v>397</v>
-      </c>
-      <c r="D170" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="E170" s="45"/>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A171" s="49"/>
-      <c r="B171" s="47" t="s">
-        <v>460</v>
-      </c>
-      <c r="C171" s="47" t="s">
-        <v>379</v>
-      </c>
-      <c r="D171" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="E171" s="45"/>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A172" s="49"/>
-      <c r="B172" s="47" t="s">
-        <v>461</v>
-      </c>
-      <c r="C172" s="47" t="s">
-        <v>379</v>
-      </c>
-      <c r="D172" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="E172" s="45"/>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A173" s="50"/>
-      <c r="B173" s="47" t="s">
-        <v>462</v>
-      </c>
-      <c r="C173" s="47" t="s">
-        <v>397</v>
-      </c>
-      <c r="D173" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="E173" s="46"/>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A174" s="43" t="s">
-        <v>463</v>
-      </c>
-      <c r="B174" s="47" t="s">
-        <v>464</v>
-      </c>
-      <c r="C174" s="47" t="s">
-        <v>379</v>
-      </c>
-      <c r="D174" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="E174" s="48" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A175" s="45"/>
-      <c r="B175" s="47" t="s">
-        <v>465</v>
-      </c>
-      <c r="C175" s="47" t="s">
-        <v>379</v>
-      </c>
-      <c r="D175" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="E175" s="45"/>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A176" s="45"/>
-      <c r="B176" s="47" t="s">
-        <v>466</v>
-      </c>
-      <c r="C176" s="47" t="s">
-        <v>440</v>
-      </c>
-      <c r="D176" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="E176" s="45"/>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A177" s="45"/>
-      <c r="B177" s="47" t="s">
-        <v>467</v>
-      </c>
-      <c r="C177" s="47" t="s">
-        <v>440</v>
-      </c>
-      <c r="D177" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="E177" s="45"/>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A178" s="45"/>
-      <c r="B178" s="47" t="s">
-        <v>468</v>
-      </c>
-      <c r="C178" s="47" t="s">
-        <v>379</v>
-      </c>
-      <c r="D178" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="E178" s="45"/>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A179" s="45"/>
-      <c r="B179" s="47" t="s">
-        <v>469</v>
-      </c>
-      <c r="C179" s="47" t="s">
-        <v>470</v>
-      </c>
-      <c r="D179" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="E179" s="45"/>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A180" s="46"/>
-      <c r="B180" s="47" t="s">
-        <v>471</v>
-      </c>
-      <c r="C180" s="47" t="s">
-        <v>384</v>
-      </c>
-      <c r="D180" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="E180" s="46"/>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A181" s="43" t="s">
-        <v>472</v>
-      </c>
-      <c r="B181" s="47" t="s">
-        <v>473</v>
-      </c>
-      <c r="C181" s="47" t="s">
-        <v>379</v>
-      </c>
-      <c r="D181" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="E181" s="43" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A182" s="45"/>
-      <c r="B182" s="47" t="s">
-        <v>474</v>
-      </c>
-      <c r="C182" s="47" t="s">
-        <v>379</v>
-      </c>
-      <c r="D182" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="E182" s="45"/>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A183" s="45"/>
-      <c r="B183" s="47" t="s">
-        <v>475</v>
-      </c>
-      <c r="C183" s="47" t="s">
-        <v>379</v>
-      </c>
-      <c r="D183" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="E183" s="45"/>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A184" s="46"/>
-      <c r="B184" s="47" t="s">
-        <v>476</v>
-      </c>
-      <c r="C184" s="47" t="s">
-        <v>379</v>
-      </c>
-      <c r="D184" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="E184" s="46"/>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A185" s="43" t="s">
-        <v>477</v>
-      </c>
-      <c r="B185" s="47" t="s">
-        <v>478</v>
-      </c>
-      <c r="C185" s="47" t="s">
-        <v>379</v>
-      </c>
-      <c r="D185" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="E185" s="43" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A186" s="45"/>
-      <c r="B186" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="C186" s="47" t="s">
-        <v>440</v>
-      </c>
-      <c r="D186" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="E186" s="45"/>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A187" s="46"/>
-      <c r="B187" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="C187" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="D187" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="E187" s="46"/>
+      <c r="E187" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="E95:E97"/>
-    <mergeCell ref="E98:E103"/>
-    <mergeCell ref="E104:E110"/>
-    <mergeCell ref="E111:E119"/>
-    <mergeCell ref="E120:E126"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A31:A52"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="A57:A62"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="A68:A74"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="A85:A88"/>
+    <mergeCell ref="A89:A94"/>
+    <mergeCell ref="A95:A97"/>
+    <mergeCell ref="A104:A110"/>
+    <mergeCell ref="A111:A119"/>
+    <mergeCell ref="A98:A103"/>
+    <mergeCell ref="A128:A140"/>
+    <mergeCell ref="A141:A145"/>
+    <mergeCell ref="A150:A155"/>
+    <mergeCell ref="A156:A157"/>
+    <mergeCell ref="A146:A149"/>
+    <mergeCell ref="A120:A126"/>
     <mergeCell ref="E146:E149"/>
     <mergeCell ref="A181:A184"/>
     <mergeCell ref="E181:E184"/>
@@ -6836,31 +6819,12 @@
     <mergeCell ref="E168:E173"/>
     <mergeCell ref="A174:A180"/>
     <mergeCell ref="E174:E180"/>
-    <mergeCell ref="A98:A103"/>
-    <mergeCell ref="A128:A140"/>
-    <mergeCell ref="A141:A145"/>
-    <mergeCell ref="A150:A155"/>
-    <mergeCell ref="A156:A157"/>
     <mergeCell ref="A158:A161"/>
-    <mergeCell ref="A146:A149"/>
-    <mergeCell ref="A85:A88"/>
-    <mergeCell ref="A89:A94"/>
-    <mergeCell ref="A95:A97"/>
-    <mergeCell ref="A104:A110"/>
-    <mergeCell ref="A111:A119"/>
-    <mergeCell ref="A120:A126"/>
-    <mergeCell ref="A57:A62"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="A68:A74"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="A31:A52"/>
-    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="E95:E97"/>
+    <mergeCell ref="E98:E103"/>
+    <mergeCell ref="E104:E110"/>
+    <mergeCell ref="E111:E119"/>
+    <mergeCell ref="E120:E126"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C34" location="Common!A2" display="List&lt;code&gt;" xr:uid="{7C3D91AA-E769-40E7-8B62-E14282F9D092}"/>
@@ -6879,20 +6843,20 @@
       <selection activeCell="B9" sqref="B9:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.81640625" customWidth="1"/>
-    <col min="2" max="2" width="28.81640625" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="48"/>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
@@ -6903,8 +6867,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="44" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -6920,8 +6884,8 @@
         <v>374</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="16"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="44"/>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
@@ -6933,8 +6897,8 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="16"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="44"/>
       <c r="B4" s="1" t="s">
         <v>166</v>
       </c>
@@ -6946,8 +6910,8 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="16"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="44"/>
       <c r="B5" s="1" t="s">
         <v>167</v>
       </c>
@@ -6959,8 +6923,8 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="16"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="44"/>
       <c r="B6" s="1" t="s">
         <v>168</v>
       </c>
@@ -6972,8 +6936,8 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="44" t="s">
         <v>83</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -6989,8 +6953,8 @@
         <v>374</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="16"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="44"/>
       <c r="B8" s="9" t="s">
         <v>170</v>
       </c>
@@ -7004,8 +6968,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="44" t="s">
         <v>126</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -7021,8 +6985,8 @@
         <v>374</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="16"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="44"/>
       <c r="B10" s="1" t="s">
         <v>172</v>
       </c>
@@ -7034,8 +6998,8 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="16"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="44"/>
       <c r="B11" s="9" t="s">
         <v>173</v>
       </c>
@@ -7049,8 +7013,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="16"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="44"/>
       <c r="B12" s="1" t="s">
         <v>174</v>
       </c>
@@ -7062,8 +7026,8 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="16"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="44"/>
       <c r="B13" s="1" t="s">
         <v>175</v>
       </c>
@@ -7075,8 +7039,8 @@
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="16"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="44"/>
       <c r="B14" s="1" t="s">
         <v>176</v>
       </c>
@@ -7088,8 +7052,8 @@
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="16"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="44"/>
       <c r="B15" s="1" t="s">
         <v>82</v>
       </c>
@@ -7101,8 +7065,8 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="16"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="44"/>
       <c r="B16" s="1" t="s">
         <v>84</v>
       </c>
@@ -7114,8 +7078,8 @@
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="16"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="44"/>
       <c r="B17" s="1" t="s">
         <v>177</v>
       </c>
@@ -7127,8 +7091,8 @@
       </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="16"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="44"/>
       <c r="B18" s="1" t="s">
         <v>178</v>
       </c>
@@ -7140,15 +7104,15 @@
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
@@ -7176,20 +7140,20 @@
       <selection activeCell="E20" sqref="E20:E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.81640625" customWidth="1"/>
-    <col min="2" max="2" width="28.81640625" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="66.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="66.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="48"/>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
@@ -7200,154 +7164,154 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="29" t="s">
         <v>379</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="29" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="16"/>
-      <c r="B3" s="36" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="44"/>
+      <c r="B3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="23" t="s">
         <v>379</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="36"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="16"/>
-      <c r="B4" s="36" t="s">
+      <c r="E3" s="23"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="44"/>
+      <c r="B4" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="23" t="s">
         <v>379</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="36"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="16"/>
-      <c r="B5" s="36" t="s">
+      <c r="E4" s="23"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="44"/>
+      <c r="B5" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="23" t="s">
         <v>379</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="36"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="16"/>
-      <c r="B6" s="36" t="s">
+      <c r="E5" s="23"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="44"/>
+      <c r="B6" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="23" t="s">
         <v>379</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="36"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="16" t="s">
+      <c r="E6" s="23"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="29" t="s">
         <v>379</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="29" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="16"/>
-      <c r="B8" s="51" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="44"/>
+      <c r="B8" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="29" t="s">
         <v>379</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="51" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
+      <c r="E8" s="29" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="29" t="s">
         <v>379</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="51" t="s">
+      <c r="E9" s="29" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="16"/>
-      <c r="B10" s="36" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="44"/>
+      <c r="B10" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="23" t="s">
         <v>379</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="36"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="16"/>
-      <c r="B11" s="51" t="s">
+      <c r="E10" s="23"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="44"/>
+      <c r="B11" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="29" t="s">
         <v>379</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="51" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="16"/>
+      <c r="E11" s="29" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="44"/>
       <c r="B12" s="1" t="s">
         <v>178</v>
       </c>
@@ -7357,10 +7321,10 @@
       <c r="D12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="36"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="16"/>
+      <c r="E12" s="23"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="44"/>
       <c r="B13" s="1" t="s">
         <v>177</v>
       </c>
@@ -7370,10 +7334,10 @@
       <c r="D13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="36"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="16"/>
+      <c r="E13" s="23"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="44"/>
       <c r="B14" s="1" t="s">
         <v>176</v>
       </c>
@@ -7385,36 +7349,36 @@
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="16"/>
-      <c r="B15" s="36" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="44"/>
+      <c r="B15" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="23" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="16"/>
-      <c r="B16" s="81" t="s">
-        <v>480</v>
-      </c>
-      <c r="C16" s="52" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="44"/>
+      <c r="B16" s="43" t="s">
+        <v>477</v>
+      </c>
+      <c r="C16" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="D16" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="51" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="16"/>
+      <c r="E16" s="29" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="44"/>
       <c r="B17" s="1" t="s">
         <v>84</v>
       </c>
@@ -7426,12 +7390,12 @@
       </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="38"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="77"/>
       <c r="B18" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="25" t="s">
         <v>83</v>
       </c>
       <c r="D18" s="11" t="s">
@@ -7439,158 +7403,158 @@
       </c>
       <c r="E18" s="11"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="38"/>
-      <c r="B19" s="77" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="77"/>
+      <c r="B19" s="39" t="s">
+        <v>478</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>379</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="65" t="s">
+        <v>479</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>480</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="76" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="73"/>
+      <c r="B21" s="35" t="s">
         <v>481</v>
       </c>
-      <c r="C19" s="77" t="s">
+      <c r="C21" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="53"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="73"/>
+      <c r="B22" s="40" t="s">
+        <v>482</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="54"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="65" t="s">
+        <v>383</v>
+      </c>
+      <c r="B23" s="35" t="s">
         <v>379</v>
       </c>
-      <c r="D19" s="77" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="77" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="31" t="s">
-        <v>482</v>
-      </c>
-      <c r="B20" s="62" t="s">
+      <c r="C23" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="76" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="73"/>
+      <c r="B24" s="35" t="s">
         <v>483</v>
       </c>
-      <c r="C20" s="62" t="s">
+      <c r="C24" s="35" t="s">
         <v>379</v>
       </c>
-      <c r="D20" s="62" t="s">
+      <c r="D24" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="70" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="40"/>
-      <c r="B21" s="62" t="s">
+      <c r="E24" s="53"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="73"/>
+      <c r="B25" s="35" t="s">
         <v>484</v>
       </c>
-      <c r="C21" s="62" t="s">
+      <c r="C25" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="53"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="73"/>
+      <c r="B26" s="35" t="s">
+        <v>485</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="53"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="73"/>
+      <c r="B27" s="35" t="s">
+        <v>486</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="53"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="73"/>
+      <c r="B28" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="53"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="74"/>
+      <c r="B29" s="35" t="s">
+        <v>488</v>
+      </c>
+      <c r="C29" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="62" t="s">
+      <c r="D29" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="71"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="40"/>
-      <c r="B22" s="78" t="s">
-        <v>485</v>
-      </c>
-      <c r="C22" s="79" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="78" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="72"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="31" t="s">
-        <v>383</v>
-      </c>
-      <c r="B23" s="62" t="s">
-        <v>379</v>
-      </c>
-      <c r="C23" s="62" t="s">
-        <v>379</v>
-      </c>
-      <c r="D23" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="70" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="40"/>
-      <c r="B24" s="62" t="s">
-        <v>486</v>
-      </c>
-      <c r="C24" s="62" t="s">
-        <v>379</v>
-      </c>
-      <c r="D24" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="71"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="40"/>
-      <c r="B25" s="62" t="s">
-        <v>487</v>
-      </c>
-      <c r="C25" s="62" t="s">
-        <v>379</v>
-      </c>
-      <c r="D25" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="71"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="40"/>
-      <c r="B26" s="62" t="s">
-        <v>488</v>
-      </c>
-      <c r="C26" s="62" t="s">
-        <v>379</v>
-      </c>
-      <c r="D26" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="71"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="40"/>
-      <c r="B27" s="62" t="s">
-        <v>489</v>
-      </c>
-      <c r="C27" s="62" t="s">
-        <v>379</v>
-      </c>
-      <c r="D27" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="71"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="40"/>
-      <c r="B28" s="62" t="s">
-        <v>490</v>
-      </c>
-      <c r="C28" s="62" t="s">
-        <v>379</v>
-      </c>
-      <c r="D28" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="71"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="41"/>
-      <c r="B29" s="62" t="s">
-        <v>491</v>
-      </c>
-      <c r="C29" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="72"/>
+      <c r="E29" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -7623,34 +7587,34 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1796875" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="30.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.54296875" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="17" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="25.26953125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="18.81640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="25.28515625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="25" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="14.81640625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="19.54296875" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="23.81640625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="23.1796875" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="21.1796875" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="19.453125" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="18.54296875" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="27.54296875" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="17.26953125" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="16.453125" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="14.453125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="23.85546875" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="23.140625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="21.140625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="19.42578125" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="18.5703125" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="27.5703125" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="17.28515625" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="16.42578125" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>179</v>
       </c>
@@ -7721,7 +7685,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>202</v>
       </c>
@@ -7792,7 +7756,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>202</v>
       </c>
@@ -7863,7 +7827,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>202</v>
       </c>
@@ -7934,7 +7898,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>202</v>
       </c>
@@ -8005,7 +7969,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>202</v>
       </c>
@@ -8076,7 +8040,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>202</v>
       </c>
@@ -8147,7 +8111,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>202</v>
       </c>
@@ -8218,7 +8182,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>202</v>
       </c>
@@ -8289,7 +8253,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>202</v>
       </c>
@@ -8360,7 +8324,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>202</v>
       </c>
@@ -8431,7 +8395,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>202</v>
       </c>
@@ -8502,7 +8466,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>202</v>
       </c>
@@ -8573,7 +8537,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>202</v>
       </c>
@@ -8644,7 +8608,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>202</v>
       </c>
@@ -8715,7 +8679,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>202</v>
       </c>
@@ -8786,7 +8750,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>202</v>
       </c>
@@ -8857,7 +8821,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>202</v>
       </c>
@@ -8928,7 +8892,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>202</v>
       </c>
@@ -8999,7 +8963,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>202</v>
       </c>
@@ -9070,7 +9034,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>202</v>
       </c>
@@ -9141,7 +9105,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>202</v>
       </c>
@@ -9212,7 +9176,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>202</v>
       </c>
@@ -9283,7 +9247,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>202</v>
       </c>
@@ -9354,7 +9318,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>202</v>
       </c>
@@ -9425,7 +9389,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>202</v>
       </c>
@@ -9496,7 +9460,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>202</v>
       </c>
@@ -9567,7 +9531,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>202</v>
       </c>
@@ -9638,7 +9602,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>202</v>
       </c>
@@ -9709,7 +9673,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>202</v>
       </c>
@@ -9780,7 +9744,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>202</v>
       </c>
@@ -9851,7 +9815,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>202</v>
       </c>
@@ -9922,7 +9886,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>202</v>
       </c>
@@ -9993,7 +9957,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>202</v>
       </c>
@@ -10064,7 +10028,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>202</v>
       </c>
@@ -10135,7 +10099,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>202</v>
       </c>
@@ -10206,7 +10170,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>202</v>
       </c>
@@ -10277,7 +10241,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>202</v>
       </c>
@@ -10348,7 +10312,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>202</v>
       </c>
@@ -10419,7 +10383,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>202</v>
       </c>
@@ -10490,7 +10454,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>202</v>
       </c>
@@ -10561,7 +10525,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>202</v>
       </c>
@@ -10632,7 +10596,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>202</v>
       </c>
@@ -10703,7 +10667,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>202</v>
       </c>
@@ -10774,7 +10738,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>202</v>
       </c>
@@ -10845,7 +10809,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>202</v>
       </c>
@@ -10916,7 +10880,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>202</v>
       </c>
@@ -10987,7 +10951,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>202</v>
       </c>
@@ -11058,7 +11022,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>202</v>
       </c>
@@ -11129,7 +11093,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>202</v>
       </c>
@@ -11200,7 +11164,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>202</v>
       </c>
@@ -11271,7 +11235,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>202</v>
       </c>
@@ -11342,7 +11306,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>202</v>
       </c>
@@ -11413,7 +11377,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>202</v>
       </c>
@@ -11484,7 +11448,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>202</v>
       </c>
@@ -11555,7 +11519,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>202</v>
       </c>
@@ -11626,7 +11590,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>202</v>
       </c>
@@ -11697,7 +11661,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>202</v>
       </c>
@@ -11768,7 +11732,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>202</v>
       </c>
@@ -11839,7 +11803,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>202</v>
       </c>
@@ -11910,7 +11874,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>202</v>
       </c>
@@ -11981,7 +11945,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>202</v>
       </c>
@@ -12052,7 +12016,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>202</v>
       </c>
@@ -12123,7 +12087,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>202</v>
       </c>
@@ -12194,7 +12158,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>202</v>
       </c>
@@ -12265,7 +12229,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>202</v>
       </c>
@@ -12336,7 +12300,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>202</v>
       </c>
@@ -12407,7 +12371,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>202</v>
       </c>
@@ -12478,7 +12442,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>202</v>
       </c>
@@ -12549,7 +12513,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>202</v>
       </c>
@@ -12620,7 +12584,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>202</v>
       </c>
@@ -12691,7 +12655,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>202</v>
       </c>
@@ -12762,7 +12726,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>202</v>
       </c>
@@ -12833,7 +12797,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>202</v>
       </c>
@@ -12904,7 +12868,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>202</v>
       </c>
@@ -12975,7 +12939,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>202</v>
       </c>
@@ -13046,7 +13010,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>202</v>
       </c>
@@ -13117,7 +13081,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>202</v>
       </c>
@@ -13188,7 +13152,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>202</v>
       </c>
@@ -13259,7 +13223,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>202</v>
       </c>
@@ -13330,7 +13294,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>202</v>
       </c>
@@ -13401,7 +13365,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>202</v>
       </c>
@@ -13472,7 +13436,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>202</v>
       </c>
@@ -13543,7 +13507,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>202</v>
       </c>
@@ -13614,7 +13578,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>202</v>
       </c>
@@ -13685,7 +13649,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>202</v>
       </c>
@@ -13756,7 +13720,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>202</v>
       </c>
@@ -13827,7 +13791,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>202</v>
       </c>
@@ -13898,7 +13862,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>202</v>
       </c>
@@ -13969,7 +13933,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>202</v>
       </c>
@@ -14040,7 +14004,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>202</v>
       </c>
@@ -14111,7 +14075,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>202</v>
       </c>
@@ -14182,7 +14146,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>202</v>
       </c>
@@ -14253,7 +14217,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>202</v>
       </c>
@@ -14324,7 +14288,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>202</v>
       </c>
@@ -14395,7 +14359,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>202</v>
       </c>
@@ -14466,7 +14430,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>202</v>
       </c>
@@ -14537,7 +14501,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>202</v>
       </c>
@@ -14608,7 +14572,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>202</v>
       </c>
@@ -14679,7 +14643,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>202</v>
       </c>
@@ -14750,7 +14714,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>202</v>
       </c>
@@ -14821,7 +14785,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>202</v>
       </c>
@@ -14892,7 +14856,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>202</v>
       </c>
@@ -14963,7 +14927,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>202</v>
       </c>
@@ -15034,7 +14998,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>202</v>
       </c>
@@ -15105,7 +15069,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>202</v>
       </c>
@@ -15176,7 +15140,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>202</v>
       </c>
@@ -15247,7 +15211,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>202</v>
       </c>
@@ -15318,7 +15282,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>202</v>
       </c>
@@ -15389,7 +15353,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>202</v>
       </c>
@@ -15460,7 +15424,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>202</v>
       </c>
@@ -15531,7 +15495,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>202</v>
       </c>
@@ -15602,7 +15566,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>202</v>
       </c>
@@ -15673,7 +15637,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>202</v>
       </c>
@@ -15744,7 +15708,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>202</v>
       </c>
@@ -15815,7 +15779,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>202</v>
       </c>
@@ -15886,7 +15850,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>202</v>
       </c>
@@ -15957,7 +15921,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>202</v>
       </c>
@@ -16028,7 +15992,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>202</v>
       </c>
@@ -16099,7 +16063,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>202</v>
       </c>
@@ -16170,7 +16134,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>202</v>
       </c>
@@ -16241,7 +16205,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>202</v>
       </c>
@@ -16312,7 +16276,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>202</v>
       </c>
@@ -16383,7 +16347,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>202</v>
       </c>
@@ -16454,7 +16418,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>202</v>
       </c>
@@ -16525,7 +16489,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>202</v>
       </c>
@@ -16596,7 +16560,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>202</v>
       </c>
@@ -16667,7 +16631,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>202</v>
       </c>
@@ -16738,7 +16702,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>202</v>
       </c>
@@ -16809,7 +16773,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>202</v>
       </c>
@@ -16880,7 +16844,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>202</v>
       </c>
@@ -16951,7 +16915,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>202</v>
       </c>
@@ -17022,7 +16986,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>202</v>
       </c>
@@ -17093,7 +17057,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>202</v>
       </c>
@@ -17164,7 +17128,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>202</v>
       </c>
@@ -17235,7 +17199,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>202</v>
       </c>
@@ -17306,7 +17270,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>202</v>
       </c>
@@ -17377,7 +17341,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>202</v>
       </c>
@@ -17448,7 +17412,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>202</v>
       </c>
@@ -17519,7 +17483,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>202</v>
       </c>
@@ -17590,7 +17554,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>202</v>
       </c>
@@ -17661,7 +17625,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>202</v>
       </c>
@@ -17732,7 +17696,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>202</v>
       </c>
@@ -17803,7 +17767,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>202</v>
       </c>
@@ -17874,7 +17838,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>202</v>
       </c>
@@ -17945,7 +17909,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>202</v>
       </c>
@@ -18016,7 +17980,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>202</v>
       </c>
@@ -18087,7 +18051,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>202</v>
       </c>
@@ -18158,7 +18122,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>202</v>
       </c>
@@ -18229,7 +18193,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>202</v>
       </c>
@@ -18300,7 +18264,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>202</v>
       </c>
@@ -18371,7 +18335,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>202</v>
       </c>
@@ -18442,7 +18406,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>202</v>
       </c>
@@ -18513,7 +18477,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>202</v>
       </c>
@@ -18584,7 +18548,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>202</v>
       </c>
@@ -18655,7 +18619,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>202</v>
       </c>
@@ -18726,7 +18690,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>202</v>
       </c>
@@ -18797,7 +18761,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>202</v>
       </c>
@@ -18868,7 +18832,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>202</v>
       </c>
@@ -18939,7 +18903,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>202</v>
       </c>
@@ -19010,7 +18974,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>202</v>
       </c>
@@ -19081,7 +19045,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>202</v>
       </c>
@@ -19159,6 +19123,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9ff55c19-750b-4d57-96fc-c7d80b080a4b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009F70ACD1D198BA4A93FC70EBD4D0E4F5" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="18b475abf70eecdc601daa3e136f5dd8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9ff55c19-750b-4d57-96fc-c7d80b080a4b" xmlns:ns3="a951cd76-9ac8-4a77-9c78-24aa33457680" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="74bfc7bfa49a56144affddbcba5bb63a" ns2:_="" ns3:_="">
     <xsd:import namespace="9ff55c19-750b-4d57-96fc-c7d80b080a4b"/>
@@ -19377,16 +19351,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9ff55c19-750b-4d57-96fc-c7d80b080a4b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -19397,6 +19361,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF55BEAE-E784-4B1F-B505-3E3A62064FF1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="9ff55c19-750b-4d57-96fc-c7d80b080a4b"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a951cd76-9ac8-4a77-9c78-24aa33457680"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7E78D44-13C1-49E4-985C-936A483EFDF6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19415,23 +19396,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF55BEAE-E784-4B1F-B505-3E3A62064FF1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="9ff55c19-750b-4d57-96fc-c7d80b080a4b"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a951cd76-9ac8-4a77-9c78-24aa33457680"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7BF6920-7D60-46C8-8FE9-AA64B4468D49}">
   <ds:schemaRefs>
